--- a/public/csv's/FuelImport.xlsx
+++ b/public/csv's/FuelImport.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesTaylor\Documents\GitHub\notes-hub\public\csv's\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D3AA244-10F8-46F8-84C0-BB8059C6B508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323F6B45-DA07-407B-A35F-69CBA0020C59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-16305" yWindow="8805" windowWidth="16410" windowHeight="14145" xr2:uid="{B6533141-E53D-D44A-9A57-AFA08376439A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6533141-E53D-D44A-9A57-AFA08376439A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="5" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="103">
   <si>
     <t>Parent Account Number</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Transaction Date</t>
   </si>
   <si>
-    <t>Posted Date</t>
-  </si>
-  <si>
     <t>Transaction VRN</t>
   </si>
   <si>
@@ -182,18 +179,6 @@
     <t>KC58VZS</t>
   </si>
   <si>
-    <t>DHL</t>
-  </si>
-  <si>
-    <t>Turners</t>
-  </si>
-  <si>
-    <t>Wincanton</t>
-  </si>
-  <si>
-    <t>Hoyer</t>
-  </si>
-  <si>
     <t>TDS ULTRA</t>
   </si>
   <si>
@@ -348,6 +333,18 @@
   </si>
   <si>
     <t>manchester</t>
+  </si>
+  <si>
+    <t>dhl</t>
+  </si>
+  <si>
+    <t>turners</t>
+  </si>
+  <si>
+    <t>wincanton</t>
+  </si>
+  <si>
+    <t>hoyer</t>
   </si>
 </sst>
 </file>
@@ -757,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EEC4AC8-C1BD-A349-B6B3-2DE09B24CCDB}">
-  <dimension ref="A1:AD257"/>
+  <dimension ref="A1:AC257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Z25" sqref="Z25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -773,25 +770,25 @@
     <col min="8" max="8" width="24.5" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="22.5" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.25" customWidth="1"/>
-    <col min="13" max="14" width="18.375" customWidth="1"/>
-    <col min="15" max="15" width="15.625" style="6" customWidth="1"/>
-    <col min="17" max="17" width="18.5" customWidth="1"/>
-    <col min="18" max="18" width="11.625" style="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.75" style="14" customWidth="1"/>
-    <col min="25" max="25" width="8.625" style="15" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="22.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.25" customWidth="1"/>
+    <col min="12" max="13" width="18.375" customWidth="1"/>
+    <col min="14" max="14" width="15.625" style="6" customWidth="1"/>
+    <col min="16" max="16" width="18.5" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="8" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.75" style="14" customWidth="1"/>
+    <col min="24" max="24" width="8.625" style="15" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="22.125" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
@@ -817,14 +814,14 @@
       <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="M1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="O1" s="1" t="s">
         <v>10</v>
@@ -863,1654 +860,1651 @@
         <v>21</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>22</v>
+        <v>93</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>420567</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <f>A2</f>
         <v>420567</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G2" s="4">
         <v>7071249302797900</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J2" s="5">
         <v>45123</v>
       </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
       <c r="L2" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="M2" t="s">
-        <v>72</v>
-      </c>
-      <c r="N2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N2" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>30</v>
+      </c>
+      <c r="R2" s="9">
+        <v>15</v>
+      </c>
+      <c r="S2" s="9">
         <v>100</v>
       </c>
-      <c r="O2" s="7">
-        <v>10000</v>
-      </c>
-      <c r="P2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R2" s="7">
-        <v>30</v>
-      </c>
-      <c r="S2" s="9">
-        <v>0</v>
-      </c>
-      <c r="T2" s="9">
-        <v>100</v>
+      <c r="T2">
+        <v>20</v>
       </c>
       <c r="U2">
         <v>20</v>
       </c>
       <c r="V2">
-        <v>20</v>
-      </c>
-      <c r="W2">
         <v>12</v>
       </c>
-      <c r="X2" s="9">
+      <c r="W2" s="9">
         <v>100</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="X2" s="10">
         <v>12894</v>
       </c>
-      <c r="Z2" s="11" t="s">
-        <v>52</v>
+      <c r="Y2" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>25</v>
       </c>
       <c r="AA2" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="AB2" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AC2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>420567</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E19" si="0">A3</f>
         <v>420567</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G3" s="4">
         <v>7071249302797900</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="5">
         <v>45123</v>
       </c>
+      <c r="K3" t="s">
+        <v>50</v>
+      </c>
       <c r="L3" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="M3" t="s">
-        <v>73</v>
-      </c>
-      <c r="N3" t="s">
-        <v>101</v>
-      </c>
-      <c r="O3" s="7">
+        <v>96</v>
+      </c>
+      <c r="N3" s="7">
         <v>10000</v>
       </c>
-      <c r="P3" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R3" s="7">
+      <c r="O3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q3" s="7">
         <v>30</v>
       </c>
+      <c r="R3" s="9">
+        <v>15</v>
+      </c>
       <c r="S3" s="9">
-        <v>0</v>
-      </c>
-      <c r="T3" s="9">
         <v>100</v>
+      </c>
+      <c r="T3">
+        <v>20</v>
       </c>
       <c r="U3">
         <v>20</v>
       </c>
       <c r="V3">
-        <v>20</v>
-      </c>
-      <c r="W3">
         <v>12</v>
       </c>
-      <c r="X3" s="9">
+      <c r="W3" s="9">
         <v>100</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="X3" s="10">
         <v>12894</v>
       </c>
-      <c r="Z3" s="11" t="s">
-        <v>52</v>
+      <c r="Y3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>25</v>
       </c>
       <c r="AA3" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AC3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>420567</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G4" s="4">
         <v>7071249302797900</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J4" s="5">
         <v>45123</v>
       </c>
+      <c r="K4" t="s">
+        <v>51</v>
+      </c>
       <c r="L4" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="M4" t="s">
-        <v>74</v>
-      </c>
-      <c r="N4" t="s">
-        <v>102</v>
-      </c>
-      <c r="O4" s="7">
+        <v>97</v>
+      </c>
+      <c r="N4" s="7">
         <v>10000</v>
       </c>
-      <c r="P4" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R4" s="7">
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="7">
         <v>30</v>
       </c>
+      <c r="R4" s="9">
+        <v>15</v>
+      </c>
       <c r="S4" s="9">
-        <v>0</v>
-      </c>
-      <c r="T4" s="9">
         <v>100</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
       </c>
       <c r="U4">
         <v>20</v>
       </c>
       <c r="V4">
-        <v>20</v>
-      </c>
-      <c r="W4">
         <v>12</v>
       </c>
-      <c r="X4" s="9">
+      <c r="W4" s="9">
         <v>100</v>
       </c>
-      <c r="Y4" s="10">
+      <c r="X4" s="10">
         <v>12894</v>
       </c>
-      <c r="Z4" s="11" t="s">
-        <v>52</v>
+      <c r="Y4" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>25</v>
       </c>
       <c r="AA4" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="AB4" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC4" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>420567</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F5" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G5" s="4">
         <v>7071249302797900</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J5" s="5">
         <v>45123</v>
       </c>
+      <c r="K5" t="s">
+        <v>52</v>
+      </c>
       <c r="L5" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="M5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="7">
+        <v>98</v>
+      </c>
+      <c r="N5" s="7">
         <v>10000</v>
       </c>
-      <c r="P5" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R5" s="7">
+      <c r="O5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q5" s="7">
         <v>30</v>
       </c>
+      <c r="R5" s="9">
+        <v>15</v>
+      </c>
       <c r="S5" s="9">
-        <v>0</v>
-      </c>
-      <c r="T5" s="9">
         <v>100</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
       </c>
       <c r="U5">
         <v>20</v>
       </c>
       <c r="V5">
-        <v>20</v>
-      </c>
-      <c r="W5">
         <v>12</v>
       </c>
-      <c r="X5" s="9">
+      <c r="W5" s="9">
         <v>100</v>
       </c>
-      <c r="Y5" s="10">
+      <c r="X5" s="10">
         <v>12894</v>
       </c>
-      <c r="Z5" s="11" t="s">
-        <v>52</v>
+      <c r="Y5" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>25</v>
       </c>
       <c r="AA5" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="AB5" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AC5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>420567</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G6" s="4">
         <v>7.0782142056701399E+18</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J6" s="5">
         <v>45123</v>
       </c>
+      <c r="K6" t="s">
+        <v>53</v>
+      </c>
       <c r="L6" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="M6" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O6" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>30</v>
+      </c>
+      <c r="R6" s="9">
+        <v>15</v>
+      </c>
+      <c r="S6" s="9">
         <v>100</v>
       </c>
-      <c r="O6" s="7">
-        <v>10000</v>
-      </c>
-      <c r="P6" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" s="7">
-        <v>30</v>
-      </c>
-      <c r="S6" s="9">
-        <v>0</v>
-      </c>
-      <c r="T6" s="9">
-        <v>100</v>
+      <c r="T6">
+        <v>20</v>
       </c>
       <c r="U6">
         <v>20</v>
       </c>
       <c r="V6">
-        <v>20</v>
-      </c>
-      <c r="W6">
         <v>12</v>
       </c>
-      <c r="X6" s="9">
+      <c r="W6" s="9">
         <v>100</v>
       </c>
-      <c r="Y6" s="10">
+      <c r="X6" s="10">
         <v>12894</v>
       </c>
-      <c r="Z6" s="11" t="s">
-        <v>52</v>
+      <c r="Y6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>25</v>
       </c>
       <c r="AA6" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="AB6" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AC6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>420567</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G7" s="4">
         <v>7.0782142056701901E+18</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J7" s="5">
         <v>45123</v>
       </c>
+      <c r="K7" t="s">
+        <v>54</v>
+      </c>
       <c r="L7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s">
-        <v>77</v>
-      </c>
-      <c r="N7" t="s">
-        <v>101</v>
-      </c>
-      <c r="O7" s="7">
+        <v>96</v>
+      </c>
+      <c r="N7" s="7">
         <v>10000</v>
       </c>
-      <c r="P7" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R7" s="7">
+      <c r="O7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q7" s="7">
         <v>30</v>
       </c>
+      <c r="R7" s="9">
+        <v>15</v>
+      </c>
       <c r="S7" s="9">
-        <v>0</v>
-      </c>
-      <c r="T7" s="9">
         <v>100</v>
+      </c>
+      <c r="T7">
+        <v>20</v>
       </c>
       <c r="U7">
         <v>20</v>
       </c>
       <c r="V7">
-        <v>20</v>
-      </c>
-      <c r="W7">
         <v>12</v>
       </c>
-      <c r="X7" s="9">
+      <c r="W7" s="9">
         <v>100</v>
       </c>
-      <c r="Y7" s="10">
+      <c r="X7" s="10">
         <v>12894</v>
       </c>
-      <c r="Z7" s="11" t="s">
-        <v>52</v>
+      <c r="Y7" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>25</v>
       </c>
       <c r="AA7" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="AB7" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AC7" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>420567</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G8" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J8" s="5">
         <v>45123</v>
       </c>
+      <c r="K8" t="s">
+        <v>55</v>
+      </c>
       <c r="L8" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="M8" t="s">
-        <v>78</v>
-      </c>
-      <c r="N8" t="s">
-        <v>102</v>
-      </c>
-      <c r="O8" s="7">
+        <v>97</v>
+      </c>
+      <c r="N8" s="7">
         <v>10000</v>
       </c>
-      <c r="P8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R8" s="7">
+      <c r="O8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="7">
         <v>30</v>
       </c>
+      <c r="R8" s="9">
+        <v>15</v>
+      </c>
       <c r="S8" s="9">
-        <v>0</v>
-      </c>
-      <c r="T8" s="9">
         <v>100</v>
+      </c>
+      <c r="T8">
+        <v>20</v>
       </c>
       <c r="U8">
         <v>20</v>
       </c>
       <c r="V8">
-        <v>20</v>
-      </c>
-      <c r="W8">
         <v>12</v>
       </c>
-      <c r="X8" s="9">
+      <c r="W8" s="9">
         <v>100</v>
       </c>
-      <c r="Y8" s="10">
+      <c r="X8" s="10">
         <v>12894</v>
       </c>
-      <c r="Z8" s="11" t="s">
-        <v>52</v>
+      <c r="Y8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>25</v>
       </c>
       <c r="AA8" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="AB8" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC8" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>420567</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G9" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J9" s="5">
         <v>45123</v>
       </c>
+      <c r="K9" t="s">
+        <v>56</v>
+      </c>
       <c r="L9" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="M9" t="s">
-        <v>79</v>
-      </c>
-      <c r="N9" t="s">
-        <v>103</v>
-      </c>
-      <c r="O9" s="7">
+        <v>98</v>
+      </c>
+      <c r="N9" s="7">
         <v>10000</v>
       </c>
-      <c r="P9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R9" s="7">
+      <c r="O9" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="7">
         <v>30</v>
       </c>
+      <c r="R9" s="9">
+        <v>15</v>
+      </c>
       <c r="S9" s="9">
-        <v>0</v>
-      </c>
-      <c r="T9" s="9">
         <v>100</v>
+      </c>
+      <c r="T9">
+        <v>20</v>
       </c>
       <c r="U9">
         <v>20</v>
       </c>
       <c r="V9">
-        <v>20</v>
-      </c>
-      <c r="W9">
         <v>12</v>
       </c>
-      <c r="X9" s="9">
+      <c r="W9" s="9">
         <v>100</v>
       </c>
-      <c r="Y9" s="10">
+      <c r="X9" s="10">
         <v>12894</v>
       </c>
-      <c r="Z9" s="11" t="s">
-        <v>52</v>
+      <c r="Y9" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>25</v>
       </c>
       <c r="AA9" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="AB9" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AC9" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>420567</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G10" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J10" s="5">
         <v>45123</v>
       </c>
+      <c r="K10" t="s">
+        <v>57</v>
+      </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="M10" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" t="s">
+        <v>95</v>
+      </c>
+      <c r="N10" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O10" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>30</v>
+      </c>
+      <c r="R10" s="9">
+        <v>15</v>
+      </c>
+      <c r="S10" s="9">
         <v>100</v>
       </c>
-      <c r="O10" s="7">
-        <v>10000</v>
-      </c>
-      <c r="P10" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R10" s="7">
-        <v>30</v>
-      </c>
-      <c r="S10" s="9">
-        <v>0</v>
-      </c>
-      <c r="T10" s="9">
-        <v>100</v>
+      <c r="T10">
+        <v>20</v>
       </c>
       <c r="U10">
         <v>20</v>
       </c>
       <c r="V10">
-        <v>20</v>
-      </c>
-      <c r="W10">
         <v>12</v>
       </c>
-      <c r="X10" s="9">
+      <c r="W10" s="9">
         <v>100</v>
       </c>
-      <c r="Y10" s="10">
+      <c r="X10" s="10">
         <v>12894</v>
       </c>
-      <c r="Z10" s="11" t="s">
-        <v>52</v>
+      <c r="Y10" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>25</v>
       </c>
       <c r="AA10" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="AB10" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AC10" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>420567</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G11" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J11" s="5">
         <v>45123</v>
       </c>
+      <c r="K11" t="s">
+        <v>58</v>
+      </c>
       <c r="L11" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="M11" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" t="s">
-        <v>101</v>
-      </c>
-      <c r="O11" s="7">
+        <v>96</v>
+      </c>
+      <c r="N11" s="7">
         <v>10000</v>
       </c>
-      <c r="P11" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R11" s="7">
+      <c r="O11" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="7">
         <v>30</v>
       </c>
+      <c r="R11" s="9">
+        <v>15</v>
+      </c>
       <c r="S11" s="9">
-        <v>0</v>
-      </c>
-      <c r="T11" s="9">
         <v>100</v>
+      </c>
+      <c r="T11">
+        <v>20</v>
       </c>
       <c r="U11">
         <v>20</v>
       </c>
       <c r="V11">
-        <v>20</v>
-      </c>
-      <c r="W11">
         <v>12</v>
       </c>
-      <c r="X11" s="9">
+      <c r="W11" s="9">
         <v>100</v>
       </c>
-      <c r="Y11" s="10">
+      <c r="X11" s="10">
         <v>12894</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>52</v>
+      <c r="Y11" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>25</v>
       </c>
       <c r="AA11" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AB11" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AC11" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>420567</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G12" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J12" s="5">
         <v>45123</v>
       </c>
+      <c r="K12" t="s">
+        <v>59</v>
+      </c>
       <c r="L12" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="M12" t="s">
-        <v>82</v>
-      </c>
-      <c r="N12" t="s">
-        <v>102</v>
-      </c>
-      <c r="O12" s="7">
+        <v>97</v>
+      </c>
+      <c r="N12" s="7">
         <v>10000</v>
       </c>
-      <c r="P12" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R12" s="7">
+      <c r="O12" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="7">
         <v>30</v>
       </c>
+      <c r="R12" s="9">
+        <v>15</v>
+      </c>
       <c r="S12" s="9">
-        <v>0</v>
-      </c>
-      <c r="T12" s="9">
         <v>100</v>
+      </c>
+      <c r="T12">
+        <v>20</v>
       </c>
       <c r="U12">
         <v>20</v>
       </c>
       <c r="V12">
-        <v>20</v>
-      </c>
-      <c r="W12">
         <v>12</v>
       </c>
-      <c r="X12" s="9">
+      <c r="W12" s="9">
         <v>100</v>
       </c>
-      <c r="Y12" s="10">
+      <c r="X12" s="10">
         <v>12894</v>
       </c>
-      <c r="Z12" s="11" t="s">
-        <v>52</v>
+      <c r="Y12" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>25</v>
       </c>
       <c r="AA12" t="s">
-        <v>26</v>
+        <v>101</v>
       </c>
       <c r="AB12" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AC12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>420567</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F13" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G13" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="5">
         <v>45123</v>
       </c>
+      <c r="K13" t="s">
+        <v>60</v>
+      </c>
       <c r="L13" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="M13" t="s">
-        <v>83</v>
-      </c>
-      <c r="N13" t="s">
-        <v>103</v>
-      </c>
-      <c r="O13" s="7">
+        <v>98</v>
+      </c>
+      <c r="N13" s="7">
         <v>10000</v>
       </c>
-      <c r="P13" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R13" s="7">
+      <c r="O13" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13" s="7">
         <v>30</v>
       </c>
+      <c r="R13" s="9">
+        <v>15</v>
+      </c>
       <c r="S13" s="9">
-        <v>0</v>
-      </c>
-      <c r="T13" s="9">
         <v>100</v>
+      </c>
+      <c r="T13">
+        <v>20</v>
       </c>
       <c r="U13">
         <v>20</v>
       </c>
       <c r="V13">
-        <v>20</v>
-      </c>
-      <c r="W13">
         <v>12</v>
       </c>
-      <c r="X13" s="9">
+      <c r="W13" s="9">
         <v>100</v>
       </c>
-      <c r="Y13" s="10">
+      <c r="X13" s="10">
         <v>12894</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>52</v>
+      <c r="Y13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>25</v>
       </c>
       <c r="AA13" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="AB13" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AC13" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>420567</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G14" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J14" s="5">
         <v>45123</v>
       </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
       <c r="L14" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="M14" t="s">
-        <v>84</v>
-      </c>
-      <c r="N14" t="s">
+        <v>95</v>
+      </c>
+      <c r="N14" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O14" t="s">
+        <v>24</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q14" s="7">
+        <v>30</v>
+      </c>
+      <c r="R14" s="9">
+        <v>15</v>
+      </c>
+      <c r="S14" s="9">
         <v>100</v>
       </c>
-      <c r="O14" s="7">
-        <v>10000</v>
-      </c>
-      <c r="P14" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R14" s="7">
-        <v>30</v>
-      </c>
-      <c r="S14" s="9">
-        <v>0</v>
-      </c>
-      <c r="T14" s="9">
-        <v>100</v>
+      <c r="T14">
+        <v>20</v>
       </c>
       <c r="U14">
         <v>20</v>
       </c>
       <c r="V14">
-        <v>20</v>
-      </c>
-      <c r="W14">
         <v>12</v>
       </c>
-      <c r="X14" s="9">
+      <c r="W14" s="9">
         <v>100</v>
       </c>
-      <c r="Y14" s="10">
+      <c r="X14" s="10">
         <v>12894</v>
       </c>
-      <c r="Z14" s="11" t="s">
-        <v>52</v>
+      <c r="Y14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>25</v>
       </c>
       <c r="AA14" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="AB14" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AC14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>420567</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G15" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J15" s="5">
         <v>45123</v>
       </c>
+      <c r="K15" t="s">
+        <v>62</v>
+      </c>
       <c r="L15" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="M15" t="s">
-        <v>85</v>
-      </c>
-      <c r="N15" t="s">
-        <v>101</v>
-      </c>
-      <c r="O15" s="7">
+        <v>96</v>
+      </c>
+      <c r="N15" s="7">
         <v>10000</v>
       </c>
-      <c r="P15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R15" s="7">
+      <c r="O15" t="s">
+        <v>24</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" s="7">
         <v>30</v>
       </c>
+      <c r="R15" s="9">
+        <v>15</v>
+      </c>
       <c r="S15" s="9">
-        <v>0</v>
-      </c>
-      <c r="T15" s="9">
         <v>100</v>
+      </c>
+      <c r="T15">
+        <v>20</v>
       </c>
       <c r="U15">
         <v>20</v>
       </c>
       <c r="V15">
-        <v>20</v>
-      </c>
-      <c r="W15">
         <v>12</v>
       </c>
-      <c r="X15" s="9">
+      <c r="W15" s="9">
         <v>100</v>
       </c>
-      <c r="Y15" s="10">
+      <c r="X15" s="10">
         <v>12894</v>
       </c>
-      <c r="Z15" s="11" t="s">
-        <v>52</v>
+      <c r="Y15" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>25</v>
       </c>
       <c r="AA15" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AB15" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AC15" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>420567</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G16" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J16" s="5">
         <v>45123</v>
       </c>
+      <c r="K16" t="s">
+        <v>63</v>
+      </c>
       <c r="L16" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="M16" t="s">
-        <v>86</v>
-      </c>
-      <c r="N16" t="s">
-        <v>102</v>
-      </c>
-      <c r="O16" s="7">
+        <v>97</v>
+      </c>
+      <c r="N16" s="7">
         <v>10000</v>
       </c>
-      <c r="P16" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R16" s="7">
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" s="7">
         <v>30</v>
       </c>
+      <c r="R16" s="9">
+        <v>15</v>
+      </c>
       <c r="S16" s="9">
-        <v>0</v>
-      </c>
-      <c r="T16" s="9">
         <v>100</v>
+      </c>
+      <c r="T16">
+        <v>20</v>
       </c>
       <c r="U16">
         <v>20</v>
       </c>
       <c r="V16">
-        <v>20</v>
-      </c>
-      <c r="W16">
         <v>12</v>
       </c>
-      <c r="X16" s="9">
+      <c r="W16" s="9">
         <v>100</v>
       </c>
-      <c r="Y16" s="10">
+      <c r="X16" s="10">
         <v>12894</v>
       </c>
-      <c r="Z16" s="11" t="s">
-        <v>52</v>
+      <c r="Y16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>25</v>
       </c>
       <c r="AA16" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="AB16" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AC16" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>420567</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F17" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G17" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="5">
         <v>45123</v>
       </c>
+      <c r="K17" t="s">
+        <v>64</v>
+      </c>
       <c r="L17" t="s">
-        <v>69</v>
+        <v>82</v>
       </c>
       <c r="M17" t="s">
-        <v>87</v>
-      </c>
-      <c r="N17" t="s">
-        <v>103</v>
-      </c>
-      <c r="O17" s="7">
+        <v>98</v>
+      </c>
+      <c r="N17" s="7">
         <v>10000</v>
       </c>
-      <c r="P17" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R17" s="7">
+      <c r="O17" t="s">
+        <v>24</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17" s="7">
         <v>30</v>
       </c>
+      <c r="R17" s="9">
+        <v>15</v>
+      </c>
       <c r="S17" s="9">
-        <v>0</v>
-      </c>
-      <c r="T17" s="9">
         <v>100</v>
+      </c>
+      <c r="T17">
+        <v>20</v>
       </c>
       <c r="U17">
         <v>20</v>
       </c>
       <c r="V17">
-        <v>20</v>
-      </c>
-      <c r="W17">
         <v>12</v>
       </c>
-      <c r="X17" s="9">
+      <c r="W17" s="9">
         <v>100</v>
       </c>
-      <c r="Y17" s="10">
+      <c r="X17" s="10">
         <v>12894</v>
       </c>
-      <c r="Z17" s="11" t="s">
-        <v>52</v>
+      <c r="Y17" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>25</v>
       </c>
       <c r="AA17" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="AB17" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="AC17" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>420567</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G18" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="5">
         <v>45123</v>
       </c>
+      <c r="K18" t="s">
+        <v>65</v>
+      </c>
       <c r="L18" t="s">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="M18" t="s">
-        <v>88</v>
-      </c>
-      <c r="N18" t="s">
+        <v>95</v>
+      </c>
+      <c r="N18" s="7">
+        <v>10000</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>30</v>
+      </c>
+      <c r="R18" s="9">
+        <v>15</v>
+      </c>
+      <c r="S18" s="9">
         <v>100</v>
       </c>
-      <c r="O18" s="7">
-        <v>10000</v>
-      </c>
-      <c r="P18" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="R18" s="7">
-        <v>30</v>
-      </c>
-      <c r="S18" s="9">
-        <v>0</v>
-      </c>
-      <c r="T18" s="9">
-        <v>100</v>
+      <c r="T18">
+        <v>20</v>
       </c>
       <c r="U18">
         <v>20</v>
       </c>
       <c r="V18">
-        <v>20</v>
-      </c>
-      <c r="W18">
         <v>12</v>
       </c>
-      <c r="X18" s="9">
+      <c r="W18" s="9">
         <v>100</v>
       </c>
-      <c r="Y18" s="10">
+      <c r="X18" s="10">
         <v>12894</v>
       </c>
-      <c r="Z18" s="11" t="s">
-        <v>52</v>
+      <c r="Y18" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>25</v>
       </c>
       <c r="AA18" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="AB18" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AC18" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>420567</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
         <v>420567</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G19" s="4">
         <v>7.0782142056702198E+18</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J19" s="5">
         <v>45123</v>
       </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
       <c r="L19" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="M19" t="s">
-        <v>89</v>
-      </c>
-      <c r="N19" t="s">
-        <v>101</v>
-      </c>
-      <c r="O19" s="7">
+        <v>96</v>
+      </c>
+      <c r="N19" s="7">
         <v>10000</v>
       </c>
-      <c r="P19" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="R19" s="7">
+      <c r="O19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19" s="7">
         <v>30</v>
       </c>
+      <c r="R19" s="9">
+        <v>15</v>
+      </c>
       <c r="S19" s="9">
-        <v>0</v>
-      </c>
-      <c r="T19" s="9">
         <v>100</v>
+      </c>
+      <c r="T19">
+        <v>20</v>
       </c>
       <c r="U19">
         <v>20</v>
       </c>
       <c r="V19">
-        <v>20</v>
-      </c>
-      <c r="W19">
         <v>12</v>
       </c>
-      <c r="X19" s="9">
+      <c r="W19" s="9">
         <v>100</v>
       </c>
-      <c r="Y19" s="10">
+      <c r="X19" s="10">
         <v>12894</v>
       </c>
-      <c r="Z19" s="11" t="s">
-        <v>52</v>
+      <c r="Y19" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>25</v>
       </c>
       <c r="AA19" t="s">
-        <v>26</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="s">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="AC19" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="O20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
-      <c r="R20" s="7"/>
+      <c r="R20" s="9"/>
       <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="Y20" s="10"/>
-      <c r="Z20" s="11"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X20" s="10"/>
+      <c r="Y20" s="11"/>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -2518,13 +2512,13 @@
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
       <c r="J21" s="5"/>
-      <c r="Q21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="9"/>
       <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="Y21" s="10"/>
-      <c r="Z21" s="11"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X21" s="10"/>
+      <c r="Y21" s="11"/>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -2532,12 +2526,12 @@
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
       <c r="J22" s="5"/>
-      <c r="Q22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="9"/>
       <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="Y22" s="11"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X22" s="11"/>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -2545,12 +2539,12 @@
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
       <c r="J23" s="5"/>
-      <c r="Q23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="Y23" s="11"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X23" s="11"/>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -2558,12 +2552,12 @@
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
       <c r="J24" s="5"/>
-      <c r="Q24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="Y24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X24" s="11"/>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -2571,12 +2565,12 @@
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
       <c r="J25" s="5"/>
-      <c r="Q25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="9"/>
       <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="Y25" s="11"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X25" s="11"/>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -2584,12 +2578,12 @@
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="5"/>
-      <c r="Q26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="9"/>
       <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="Y26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X26" s="11"/>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -2597,12 +2591,12 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="5"/>
-      <c r="Q27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="9"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="Y27" s="11"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X27" s="11"/>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -2610,12 +2604,12 @@
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
       <c r="J28" s="5"/>
-      <c r="Q28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="9"/>
       <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="Y28" s="11"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X28" s="11"/>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -2623,12 +2617,12 @@
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="5"/>
-      <c r="Q29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="Y29" s="11"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X29" s="11"/>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -2636,12 +2630,12 @@
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
       <c r="J30" s="5"/>
-      <c r="Q30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="Y30" s="11"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X30" s="11"/>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -2649,12 +2643,12 @@
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
       <c r="J31" s="5"/>
-      <c r="Q31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="Y31" s="11"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="X31" s="11"/>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -2662,12 +2656,12 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="5"/>
-      <c r="Q32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="Y32" s="11"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X32" s="11"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -2675,12 +2669,12 @@
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="5"/>
-      <c r="Q33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="9"/>
       <c r="R33" s="9"/>
-      <c r="S33" s="9"/>
-      <c r="Y33" s="11"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X33" s="11"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -2688,12 +2682,12 @@
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
       <c r="J34" s="5"/>
-      <c r="Q34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="9"/>
       <c r="R34" s="9"/>
-      <c r="S34" s="9"/>
-      <c r="Y34" s="11"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X34" s="11"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -2701,12 +2695,12 @@
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
       <c r="J35" s="5"/>
-      <c r="Q35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="9"/>
       <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="Y35" s="11"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X35" s="11"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -2714,12 +2708,12 @@
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
       <c r="J36" s="5"/>
-      <c r="Q36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="9"/>
       <c r="R36" s="9"/>
-      <c r="S36" s="9"/>
-      <c r="Y36" s="11"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X36" s="11"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -2727,12 +2721,12 @@
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="5"/>
-      <c r="Q37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="9"/>
       <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="Y37" s="11"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X37" s="11"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -2740,12 +2734,12 @@
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="5"/>
-      <c r="Q38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="9"/>
       <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="Y38" s="11"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X38" s="11"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -2753,12 +2747,12 @@
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
       <c r="J39" s="5"/>
-      <c r="Q39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="9"/>
       <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="Y39" s="11"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X39" s="11"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -2766,12 +2760,12 @@
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="5"/>
-      <c r="Q40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="9"/>
       <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="Y40" s="11"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X40" s="11"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -2779,12 +2773,12 @@
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="5"/>
-      <c r="Q41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="Y41" s="11"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X41" s="11"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -2792,12 +2786,12 @@
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
       <c r="J42" s="5"/>
-      <c r="Q42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="9"/>
       <c r="R42" s="9"/>
-      <c r="S42" s="9"/>
-      <c r="Y42" s="11"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X42" s="11"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2805,12 +2799,12 @@
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
       <c r="J43" s="5"/>
-      <c r="Q43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="9"/>
       <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="Y43" s="11"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X43" s="11"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2818,12 +2812,12 @@
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
       <c r="J44" s="5"/>
-      <c r="Q44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="9"/>
       <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="Y44" s="11"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X44" s="11"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2831,13 +2825,13 @@
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
       <c r="J45" s="5"/>
-      <c r="O45" s="7"/>
-      <c r="Q45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="9"/>
       <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="Y45" s="11"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X45" s="11"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2845,12 +2839,12 @@
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
       <c r="J46" s="5"/>
-      <c r="Q46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="Y46" s="11"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X46" s="11"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2858,12 +2852,12 @@
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="5"/>
-      <c r="Q47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="9"/>
       <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="Y47" s="11"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X47" s="11"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2871,12 +2865,12 @@
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="5"/>
-      <c r="Q48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="Y48" s="11"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X48" s="11"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2884,12 +2878,12 @@
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
       <c r="J49" s="5"/>
-      <c r="Q49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="9"/>
       <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="Y49" s="11"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X49" s="11"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2897,12 +2891,12 @@
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="5"/>
-      <c r="Q50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="9"/>
       <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="Y50" s="11"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X50" s="11"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2910,12 +2904,12 @@
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="5"/>
-      <c r="Q51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="9"/>
       <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="Y51" s="11"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X51" s="11"/>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2923,12 +2917,12 @@
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
       <c r="J52" s="5"/>
-      <c r="Q52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="9"/>
       <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="Y52" s="11"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X52" s="11"/>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2936,12 +2930,12 @@
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
       <c r="J53" s="5"/>
-      <c r="Q53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="9"/>
       <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="Y53" s="11"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X53" s="11"/>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2949,12 +2943,12 @@
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
       <c r="J54" s="5"/>
-      <c r="Q54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="9"/>
       <c r="R54" s="9"/>
-      <c r="S54" s="9"/>
-      <c r="Y54" s="11"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X54" s="11"/>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2962,12 +2956,12 @@
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
       <c r="J55" s="5"/>
-      <c r="Q55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="9"/>
       <c r="R55" s="9"/>
-      <c r="S55" s="9"/>
-      <c r="Y55" s="11"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X55" s="11"/>
+    </row>
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2975,12 +2969,12 @@
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
       <c r="J56" s="5"/>
-      <c r="Q56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="9"/>
       <c r="R56" s="9"/>
-      <c r="S56" s="9"/>
-      <c r="Y56" s="11"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X56" s="11"/>
+    </row>
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2988,12 +2982,12 @@
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
       <c r="J57" s="5"/>
-      <c r="Q57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="9"/>
       <c r="R57" s="9"/>
-      <c r="S57" s="9"/>
-      <c r="Y57" s="11"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X57" s="11"/>
+    </row>
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -3001,12 +2995,12 @@
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
       <c r="J58" s="5"/>
-      <c r="Q58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="9"/>
       <c r="R58" s="9"/>
-      <c r="S58" s="9"/>
-      <c r="Y58" s="11"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X58" s="11"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3014,12 +3008,12 @@
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
       <c r="J59" s="5"/>
-      <c r="Q59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="9"/>
       <c r="R59" s="9"/>
-      <c r="S59" s="9"/>
-      <c r="Y59" s="11"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X59" s="11"/>
+    </row>
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3027,12 +3021,12 @@
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
       <c r="J60" s="5"/>
-      <c r="Q60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="9"/>
       <c r="R60" s="9"/>
-      <c r="S60" s="9"/>
-      <c r="Y60" s="11"/>
-    </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X60" s="11"/>
+    </row>
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -3040,12 +3034,12 @@
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
       <c r="J61" s="5"/>
-      <c r="Q61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="9"/>
       <c r="R61" s="9"/>
-      <c r="S61" s="9"/>
-      <c r="Y61" s="11"/>
-    </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X61" s="11"/>
+    </row>
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -3053,12 +3047,12 @@
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
       <c r="J62" s="5"/>
-      <c r="Q62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="9"/>
       <c r="R62" s="9"/>
-      <c r="S62" s="9"/>
-      <c r="Y62" s="11"/>
-    </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X62" s="11"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -3066,12 +3060,12 @@
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="5"/>
-      <c r="Q63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="9"/>
       <c r="R63" s="9"/>
-      <c r="S63" s="9"/>
-      <c r="Y63" s="11"/>
-    </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X63" s="11"/>
+    </row>
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -3079,12 +3073,12 @@
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
       <c r="J64" s="5"/>
-      <c r="Q64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="9"/>
       <c r="R64" s="9"/>
-      <c r="S64" s="9"/>
-      <c r="Y64" s="11"/>
-    </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X64" s="11"/>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -3092,12 +3086,12 @@
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="5"/>
-      <c r="Q65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="9"/>
       <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="Y65" s="11"/>
-    </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X65" s="11"/>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -3105,12 +3099,12 @@
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
       <c r="J66" s="5"/>
-      <c r="Q66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="9"/>
       <c r="R66" s="9"/>
-      <c r="S66" s="9"/>
-      <c r="Y66" s="11"/>
-    </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X66" s="11"/>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -3118,12 +3112,12 @@
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
       <c r="J67" s="5"/>
-      <c r="Q67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="9"/>
       <c r="R67" s="9"/>
-      <c r="S67" s="9"/>
-      <c r="Y67" s="11"/>
-    </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X67" s="11"/>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -3131,12 +3125,12 @@
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
       <c r="J68" s="5"/>
-      <c r="Q68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="9"/>
       <c r="R68" s="9"/>
-      <c r="S68" s="9"/>
-      <c r="Y68" s="11"/>
-    </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X68" s="11"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -3144,12 +3138,12 @@
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
       <c r="J69" s="5"/>
-      <c r="Q69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="9"/>
       <c r="R69" s="9"/>
-      <c r="S69" s="9"/>
-      <c r="Y69" s="11"/>
-    </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X69" s="11"/>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -3157,12 +3151,12 @@
       <c r="H70" s="3"/>
       <c r="I70" s="3"/>
       <c r="J70" s="5"/>
-      <c r="Q70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="9"/>
       <c r="R70" s="9"/>
-      <c r="S70" s="9"/>
-      <c r="Y70" s="11"/>
-    </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X70" s="11"/>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -3170,12 +3164,12 @@
       <c r="H71" s="3"/>
       <c r="I71" s="3"/>
       <c r="J71" s="5"/>
-      <c r="Q71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="9"/>
       <c r="R71" s="9"/>
-      <c r="S71" s="9"/>
-      <c r="Y71" s="11"/>
-    </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X71" s="11"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -3183,12 +3177,12 @@
       <c r="H72" s="3"/>
       <c r="I72" s="3"/>
       <c r="J72" s="5"/>
-      <c r="Q72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="9"/>
       <c r="R72" s="9"/>
-      <c r="S72" s="9"/>
-      <c r="Y72" s="11"/>
-    </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X72" s="11"/>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -3196,12 +3190,12 @@
       <c r="H73" s="3"/>
       <c r="I73" s="3"/>
       <c r="J73" s="5"/>
-      <c r="Q73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="9"/>
       <c r="R73" s="9"/>
-      <c r="S73" s="9"/>
-      <c r="Y73" s="11"/>
-    </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X73" s="11"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -3209,12 +3203,12 @@
       <c r="H74" s="3"/>
       <c r="I74" s="3"/>
       <c r="J74" s="5"/>
-      <c r="Q74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="9"/>
       <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="Y74" s="11"/>
-    </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X74" s="11"/>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -3222,12 +3216,12 @@
       <c r="H75" s="3"/>
       <c r="I75" s="3"/>
       <c r="J75" s="5"/>
-      <c r="Q75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="9"/>
       <c r="R75" s="9"/>
-      <c r="S75" s="9"/>
-      <c r="Y75" s="11"/>
-    </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X75" s="11"/>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -3235,12 +3229,12 @@
       <c r="H76" s="3"/>
       <c r="I76" s="3"/>
       <c r="J76" s="5"/>
-      <c r="Q76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="9"/>
       <c r="R76" s="9"/>
-      <c r="S76" s="9"/>
-      <c r="Y76" s="11"/>
-    </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X76" s="11"/>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -3248,12 +3242,12 @@
       <c r="H77" s="3"/>
       <c r="I77" s="3"/>
       <c r="J77" s="5"/>
-      <c r="Q77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="9"/>
       <c r="R77" s="9"/>
-      <c r="S77" s="9"/>
-      <c r="Y77" s="11"/>
-    </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X77" s="11"/>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -3261,12 +3255,12 @@
       <c r="H78" s="3"/>
       <c r="I78" s="3"/>
       <c r="J78" s="5"/>
-      <c r="Q78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="9"/>
       <c r="R78" s="9"/>
-      <c r="S78" s="9"/>
-      <c r="Y78" s="11"/>
-    </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X78" s="11"/>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -3274,12 +3268,12 @@
       <c r="H79" s="3"/>
       <c r="I79" s="3"/>
       <c r="J79" s="5"/>
-      <c r="Q79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="9"/>
       <c r="R79" s="9"/>
-      <c r="S79" s="9"/>
-      <c r="Y79" s="11"/>
-    </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X79" s="11"/>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -3287,12 +3281,12 @@
       <c r="H80" s="3"/>
       <c r="I80" s="3"/>
       <c r="J80" s="5"/>
-      <c r="Q80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="9"/>
       <c r="R80" s="9"/>
-      <c r="S80" s="9"/>
-      <c r="Y80" s="11"/>
-    </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X80" s="11"/>
+    </row>
+    <row r="81" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -3300,12 +3294,12 @@
       <c r="H81" s="3"/>
       <c r="I81" s="3"/>
       <c r="J81" s="5"/>
-      <c r="Q81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="9"/>
       <c r="R81" s="9"/>
-      <c r="S81" s="9"/>
-      <c r="Y81" s="11"/>
-    </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X81" s="11"/>
+    </row>
+    <row r="82" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -3313,12 +3307,12 @@
       <c r="H82" s="3"/>
       <c r="I82" s="3"/>
       <c r="J82" s="5"/>
-      <c r="Q82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="9"/>
       <c r="R82" s="9"/>
-      <c r="S82" s="9"/>
-      <c r="Y82" s="11"/>
-    </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X82" s="11"/>
+    </row>
+    <row r="83" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -3326,12 +3320,12 @@
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="5"/>
-      <c r="Q83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="9"/>
       <c r="R83" s="9"/>
-      <c r="S83" s="9"/>
-      <c r="Y83" s="11"/>
-    </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X83" s="11"/>
+    </row>
+    <row r="84" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -3339,12 +3333,12 @@
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="5"/>
-      <c r="Q84" s="7"/>
+      <c r="P84" s="7"/>
+      <c r="Q84" s="9"/>
       <c r="R84" s="9"/>
-      <c r="S84" s="9"/>
-      <c r="Y84" s="11"/>
-    </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X84" s="11"/>
+    </row>
+    <row r="85" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -3352,12 +3346,12 @@
       <c r="H85" s="3"/>
       <c r="I85" s="3"/>
       <c r="J85" s="5"/>
-      <c r="Q85" s="7"/>
+      <c r="P85" s="7"/>
+      <c r="Q85" s="9"/>
       <c r="R85" s="9"/>
-      <c r="S85" s="9"/>
-      <c r="Y85" s="11"/>
-    </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X85" s="11"/>
+    </row>
+    <row r="86" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -3365,12 +3359,12 @@
       <c r="H86" s="3"/>
       <c r="I86" s="3"/>
       <c r="J86" s="5"/>
-      <c r="Q86" s="7"/>
+      <c r="P86" s="7"/>
+      <c r="Q86" s="9"/>
       <c r="R86" s="9"/>
-      <c r="S86" s="9"/>
-      <c r="Y86" s="11"/>
-    </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X86" s="11"/>
+    </row>
+    <row r="87" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3378,12 +3372,12 @@
       <c r="H87" s="3"/>
       <c r="I87" s="3"/>
       <c r="J87" s="5"/>
-      <c r="Q87" s="7"/>
+      <c r="P87" s="7"/>
+      <c r="Q87" s="9"/>
       <c r="R87" s="9"/>
-      <c r="S87" s="9"/>
-      <c r="Y87" s="11"/>
-    </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X87" s="11"/>
+    </row>
+    <row r="88" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3391,12 +3385,12 @@
       <c r="H88" s="3"/>
       <c r="I88" s="3"/>
       <c r="J88" s="5"/>
-      <c r="Q88" s="7"/>
+      <c r="P88" s="7"/>
+      <c r="Q88" s="9"/>
       <c r="R88" s="9"/>
-      <c r="S88" s="9"/>
-      <c r="Y88" s="11"/>
-    </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X88" s="11"/>
+    </row>
+    <row r="89" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3404,12 +3398,12 @@
       <c r="H89" s="3"/>
       <c r="I89" s="3"/>
       <c r="J89" s="5"/>
-      <c r="Q89" s="7"/>
+      <c r="P89" s="7"/>
+      <c r="Q89" s="9"/>
       <c r="R89" s="9"/>
-      <c r="S89" s="9"/>
-      <c r="Y89" s="11"/>
-    </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X89" s="11"/>
+    </row>
+    <row r="90" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3417,12 +3411,12 @@
       <c r="H90" s="3"/>
       <c r="I90" s="3"/>
       <c r="J90" s="5"/>
-      <c r="Q90" s="7"/>
+      <c r="P90" s="7"/>
+      <c r="Q90" s="9"/>
       <c r="R90" s="9"/>
-      <c r="S90" s="9"/>
-      <c r="Y90" s="11"/>
-    </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X90" s="11"/>
+    </row>
+    <row r="91" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3430,12 +3424,12 @@
       <c r="H91" s="3"/>
       <c r="I91" s="3"/>
       <c r="J91" s="5"/>
-      <c r="Q91" s="7"/>
+      <c r="P91" s="7"/>
+      <c r="Q91" s="9"/>
       <c r="R91" s="9"/>
-      <c r="S91" s="9"/>
-      <c r="Y91" s="11"/>
-    </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X91" s="11"/>
+    </row>
+    <row r="92" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3443,12 +3437,12 @@
       <c r="H92" s="3"/>
       <c r="I92" s="3"/>
       <c r="J92" s="5"/>
-      <c r="Q92" s="7"/>
+      <c r="P92" s="7"/>
+      <c r="Q92" s="9"/>
       <c r="R92" s="9"/>
-      <c r="S92" s="9"/>
-      <c r="Y92" s="11"/>
-    </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X92" s="11"/>
+    </row>
+    <row r="93" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3456,12 +3450,12 @@
       <c r="H93" s="3"/>
       <c r="I93" s="3"/>
       <c r="J93" s="5"/>
-      <c r="Q93" s="7"/>
+      <c r="P93" s="7"/>
+      <c r="Q93" s="9"/>
       <c r="R93" s="9"/>
-      <c r="S93" s="9"/>
-      <c r="Y93" s="11"/>
-    </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X93" s="11"/>
+    </row>
+    <row r="94" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3469,12 +3463,12 @@
       <c r="H94" s="3"/>
       <c r="I94" s="3"/>
       <c r="J94" s="5"/>
-      <c r="Q94" s="7"/>
+      <c r="P94" s="7"/>
+      <c r="Q94" s="9"/>
       <c r="R94" s="9"/>
-      <c r="S94" s="9"/>
-      <c r="Y94" s="11"/>
-    </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X94" s="11"/>
+    </row>
+    <row r="95" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3482,13 +3476,13 @@
       <c r="H95" s="3"/>
       <c r="I95" s="3"/>
       <c r="J95" s="5"/>
-      <c r="O95" s="7"/>
-      <c r="Q95" s="7"/>
+      <c r="N95" s="7"/>
+      <c r="P95" s="7"/>
+      <c r="Q95" s="9"/>
       <c r="R95" s="9"/>
-      <c r="S95" s="9"/>
-      <c r="Y95" s="11"/>
-    </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X95" s="11"/>
+    </row>
+    <row r="96" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3496,13 +3490,13 @@
       <c r="H96" s="3"/>
       <c r="I96" s="3"/>
       <c r="J96" s="5"/>
-      <c r="O96" s="7"/>
-      <c r="Q96" s="7"/>
+      <c r="N96" s="7"/>
+      <c r="P96" s="7"/>
+      <c r="Q96" s="9"/>
       <c r="R96" s="9"/>
-      <c r="S96" s="9"/>
-      <c r="Y96" s="11"/>
-    </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X96" s="11"/>
+    </row>
+    <row r="97" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3510,13 +3504,13 @@
       <c r="H97" s="3"/>
       <c r="I97" s="3"/>
       <c r="J97" s="5"/>
-      <c r="O97" s="7"/>
-      <c r="Q97" s="7"/>
+      <c r="N97" s="7"/>
+      <c r="P97" s="7"/>
+      <c r="Q97" s="9"/>
       <c r="R97" s="9"/>
-      <c r="S97" s="9"/>
-      <c r="Y97" s="11"/>
-    </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X97" s="11"/>
+    </row>
+    <row r="98" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3524,12 +3518,12 @@
       <c r="H98" s="3"/>
       <c r="I98" s="3"/>
       <c r="J98" s="5"/>
-      <c r="Q98" s="7"/>
+      <c r="P98" s="7"/>
+      <c r="Q98" s="9"/>
       <c r="R98" s="9"/>
-      <c r="S98" s="9"/>
-      <c r="Y98" s="11"/>
-    </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X98" s="11"/>
+    </row>
+    <row r="99" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3537,12 +3531,12 @@
       <c r="H99" s="3"/>
       <c r="I99" s="3"/>
       <c r="J99" s="5"/>
-      <c r="Q99" s="7"/>
+      <c r="P99" s="7"/>
+      <c r="Q99" s="9"/>
       <c r="R99" s="9"/>
-      <c r="S99" s="9"/>
-      <c r="Y99" s="11"/>
-    </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X99" s="11"/>
+    </row>
+    <row r="100" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3550,12 +3544,12 @@
       <c r="H100" s="3"/>
       <c r="I100" s="3"/>
       <c r="J100" s="5"/>
-      <c r="Q100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="9"/>
       <c r="R100" s="9"/>
-      <c r="S100" s="9"/>
-      <c r="Y100" s="11"/>
-    </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X100" s="11"/>
+    </row>
+    <row r="101" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3563,12 +3557,12 @@
       <c r="H101" s="3"/>
       <c r="I101" s="3"/>
       <c r="J101" s="5"/>
-      <c r="Q101" s="7"/>
+      <c r="P101" s="7"/>
+      <c r="Q101" s="9"/>
       <c r="R101" s="9"/>
-      <c r="S101" s="9"/>
-      <c r="Y101" s="11"/>
-    </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X101" s="11"/>
+    </row>
+    <row r="102" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3576,12 +3570,12 @@
       <c r="H102" s="3"/>
       <c r="I102" s="3"/>
       <c r="J102" s="5"/>
-      <c r="Q102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="9"/>
       <c r="R102" s="9"/>
-      <c r="S102" s="9"/>
-      <c r="Y102" s="11"/>
-    </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X102" s="11"/>
+    </row>
+    <row r="103" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3589,12 +3583,12 @@
       <c r="H103" s="3"/>
       <c r="I103" s="3"/>
       <c r="J103" s="5"/>
-      <c r="Q103" s="7"/>
+      <c r="P103" s="7"/>
+      <c r="Q103" s="9"/>
       <c r="R103" s="9"/>
-      <c r="S103" s="9"/>
-      <c r="Y103" s="11"/>
-    </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X103" s="11"/>
+    </row>
+    <row r="104" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3602,12 +3596,12 @@
       <c r="H104" s="3"/>
       <c r="I104" s="3"/>
       <c r="J104" s="5"/>
-      <c r="Q104" s="7"/>
+      <c r="P104" s="7"/>
+      <c r="Q104" s="9"/>
       <c r="R104" s="9"/>
-      <c r="S104" s="9"/>
-      <c r="Y104" s="11"/>
-    </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X104" s="11"/>
+    </row>
+    <row r="105" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3615,12 +3609,12 @@
       <c r="H105" s="3"/>
       <c r="I105" s="3"/>
       <c r="J105" s="5"/>
-      <c r="Q105" s="7"/>
+      <c r="P105" s="7"/>
+      <c r="Q105" s="9"/>
       <c r="R105" s="9"/>
-      <c r="S105" s="9"/>
-      <c r="Y105" s="11"/>
-    </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X105" s="11"/>
+    </row>
+    <row r="106" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3628,12 +3622,12 @@
       <c r="H106" s="3"/>
       <c r="I106" s="3"/>
       <c r="J106" s="5"/>
-      <c r="Q106" s="7"/>
+      <c r="P106" s="7"/>
+      <c r="Q106" s="9"/>
       <c r="R106" s="9"/>
-      <c r="S106" s="9"/>
-      <c r="Y106" s="11"/>
-    </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X106" s="11"/>
+    </row>
+    <row r="107" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3641,12 +3635,12 @@
       <c r="H107" s="3"/>
       <c r="I107" s="3"/>
       <c r="J107" s="5"/>
-      <c r="Q107" s="7"/>
+      <c r="P107" s="7"/>
+      <c r="Q107" s="9"/>
       <c r="R107" s="9"/>
-      <c r="S107" s="9"/>
-      <c r="Y107" s="11"/>
-    </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X107" s="11"/>
+    </row>
+    <row r="108" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3654,12 +3648,12 @@
       <c r="H108" s="3"/>
       <c r="I108" s="3"/>
       <c r="J108" s="5"/>
-      <c r="Q108" s="7"/>
+      <c r="P108" s="7"/>
+      <c r="Q108" s="9"/>
       <c r="R108" s="9"/>
-      <c r="S108" s="9"/>
-      <c r="Y108" s="11"/>
-    </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X108" s="11"/>
+    </row>
+    <row r="109" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3667,12 +3661,12 @@
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="5"/>
-      <c r="Q109" s="7"/>
+      <c r="P109" s="7"/>
+      <c r="Q109" s="9"/>
       <c r="R109" s="9"/>
-      <c r="S109" s="9"/>
-      <c r="Y109" s="11"/>
-    </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X109" s="11"/>
+    </row>
+    <row r="110" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3680,12 +3674,12 @@
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="5"/>
-      <c r="Q110" s="7"/>
+      <c r="P110" s="7"/>
+      <c r="Q110" s="9"/>
       <c r="R110" s="9"/>
-      <c r="S110" s="9"/>
-      <c r="Y110" s="11"/>
-    </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X110" s="11"/>
+    </row>
+    <row r="111" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3693,12 +3687,12 @@
       <c r="H111" s="3"/>
       <c r="I111" s="3"/>
       <c r="J111" s="5"/>
-      <c r="Q111" s="7"/>
+      <c r="P111" s="7"/>
+      <c r="Q111" s="9"/>
       <c r="R111" s="9"/>
-      <c r="S111" s="9"/>
-      <c r="Y111" s="11"/>
-    </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X111" s="11"/>
+    </row>
+    <row r="112" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3706,12 +3700,12 @@
       <c r="H112" s="3"/>
       <c r="I112" s="3"/>
       <c r="J112" s="5"/>
-      <c r="Q112" s="7"/>
+      <c r="P112" s="7"/>
+      <c r="Q112" s="9"/>
       <c r="R112" s="9"/>
-      <c r="S112" s="9"/>
-      <c r="Y112" s="11"/>
-    </row>
-    <row r="113" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X112" s="11"/>
+    </row>
+    <row r="113" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3719,12 +3713,12 @@
       <c r="H113" s="3"/>
       <c r="I113" s="3"/>
       <c r="J113" s="5"/>
-      <c r="Q113" s="7"/>
+      <c r="P113" s="7"/>
+      <c r="Q113" s="9"/>
       <c r="R113" s="9"/>
-      <c r="S113" s="9"/>
-      <c r="Y113" s="11"/>
-    </row>
-    <row r="114" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X113" s="11"/>
+    </row>
+    <row r="114" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3732,12 +3726,12 @@
       <c r="H114" s="3"/>
       <c r="I114" s="3"/>
       <c r="J114" s="5"/>
-      <c r="Q114" s="7"/>
+      <c r="P114" s="7"/>
+      <c r="Q114" s="9"/>
       <c r="R114" s="9"/>
-      <c r="S114" s="9"/>
-      <c r="Y114" s="11"/>
-    </row>
-    <row r="115" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X114" s="11"/>
+    </row>
+    <row r="115" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3745,12 +3739,12 @@
       <c r="H115" s="3"/>
       <c r="I115" s="3"/>
       <c r="J115" s="5"/>
-      <c r="Q115" s="7"/>
+      <c r="P115" s="7"/>
+      <c r="Q115" s="9"/>
       <c r="R115" s="9"/>
-      <c r="S115" s="9"/>
-      <c r="Y115" s="11"/>
-    </row>
-    <row r="116" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X115" s="11"/>
+    </row>
+    <row r="116" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3758,12 +3752,12 @@
       <c r="H116" s="3"/>
       <c r="I116" s="3"/>
       <c r="J116" s="5"/>
-      <c r="Q116" s="7"/>
+      <c r="P116" s="7"/>
+      <c r="Q116" s="9"/>
       <c r="R116" s="9"/>
-      <c r="S116" s="9"/>
-      <c r="Y116" s="11"/>
-    </row>
-    <row r="117" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X116" s="11"/>
+    </row>
+    <row r="117" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3771,12 +3765,12 @@
       <c r="H117" s="3"/>
       <c r="I117" s="3"/>
       <c r="J117" s="5"/>
-      <c r="Q117" s="7"/>
+      <c r="P117" s="7"/>
+      <c r="Q117" s="9"/>
       <c r="R117" s="9"/>
-      <c r="S117" s="9"/>
-      <c r="Y117" s="11"/>
-    </row>
-    <row r="118" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X117" s="11"/>
+    </row>
+    <row r="118" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3784,12 +3778,12 @@
       <c r="H118" s="3"/>
       <c r="I118" s="3"/>
       <c r="J118" s="5"/>
-      <c r="Q118" s="7"/>
+      <c r="P118" s="7"/>
+      <c r="Q118" s="9"/>
       <c r="R118" s="9"/>
-      <c r="S118" s="9"/>
-      <c r="Y118" s="11"/>
-    </row>
-    <row r="119" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X118" s="11"/>
+    </row>
+    <row r="119" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3797,12 +3791,12 @@
       <c r="H119" s="3"/>
       <c r="I119" s="3"/>
       <c r="J119" s="5"/>
-      <c r="Q119" s="7"/>
+      <c r="P119" s="7"/>
+      <c r="Q119" s="9"/>
       <c r="R119" s="9"/>
-      <c r="S119" s="9"/>
-      <c r="Y119" s="11"/>
-    </row>
-    <row r="120" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X119" s="11"/>
+    </row>
+    <row r="120" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3810,12 +3804,12 @@
       <c r="H120" s="3"/>
       <c r="I120" s="3"/>
       <c r="J120" s="5"/>
-      <c r="Q120" s="7"/>
+      <c r="P120" s="7"/>
+      <c r="Q120" s="9"/>
       <c r="R120" s="9"/>
-      <c r="S120" s="9"/>
-      <c r="Y120" s="11"/>
-    </row>
-    <row r="121" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X120" s="11"/>
+    </row>
+    <row r="121" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3823,12 +3817,12 @@
       <c r="H121" s="3"/>
       <c r="I121" s="3"/>
       <c r="J121" s="5"/>
-      <c r="Q121" s="7"/>
+      <c r="P121" s="7"/>
+      <c r="Q121" s="9"/>
       <c r="R121" s="9"/>
-      <c r="S121" s="9"/>
-      <c r="Y121" s="11"/>
-    </row>
-    <row r="122" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X121" s="11"/>
+    </row>
+    <row r="122" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3836,12 +3830,12 @@
       <c r="H122" s="3"/>
       <c r="I122" s="3"/>
       <c r="J122" s="5"/>
-      <c r="Q122" s="7"/>
+      <c r="P122" s="7"/>
+      <c r="Q122" s="9"/>
       <c r="R122" s="9"/>
-      <c r="S122" s="9"/>
-      <c r="Y122" s="11"/>
-    </row>
-    <row r="123" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X122" s="11"/>
+    </row>
+    <row r="123" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3849,12 +3843,12 @@
       <c r="H123" s="3"/>
       <c r="I123" s="3"/>
       <c r="J123" s="5"/>
-      <c r="Q123" s="7"/>
+      <c r="P123" s="7"/>
+      <c r="Q123" s="9"/>
       <c r="R123" s="9"/>
-      <c r="S123" s="9"/>
-      <c r="Y123" s="11"/>
-    </row>
-    <row r="124" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X123" s="11"/>
+    </row>
+    <row r="124" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3862,12 +3856,12 @@
       <c r="H124" s="3"/>
       <c r="I124" s="3"/>
       <c r="J124" s="5"/>
-      <c r="Q124" s="7"/>
+      <c r="P124" s="7"/>
+      <c r="Q124" s="9"/>
       <c r="R124" s="9"/>
-      <c r="S124" s="9"/>
-      <c r="Y124" s="11"/>
-    </row>
-    <row r="125" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X124" s="11"/>
+    </row>
+    <row r="125" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3875,12 +3869,12 @@
       <c r="H125" s="3"/>
       <c r="I125" s="3"/>
       <c r="J125" s="5"/>
-      <c r="Q125" s="7"/>
+      <c r="P125" s="7"/>
+      <c r="Q125" s="9"/>
       <c r="R125" s="9"/>
-      <c r="S125" s="9"/>
-      <c r="Y125" s="11"/>
-    </row>
-    <row r="126" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X125" s="11"/>
+    </row>
+    <row r="126" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3888,12 +3882,12 @@
       <c r="H126" s="3"/>
       <c r="I126" s="3"/>
       <c r="J126" s="5"/>
-      <c r="Q126" s="7"/>
+      <c r="P126" s="7"/>
+      <c r="Q126" s="9"/>
       <c r="R126" s="9"/>
-      <c r="S126" s="9"/>
-      <c r="Y126" s="11"/>
-    </row>
-    <row r="127" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X126" s="11"/>
+    </row>
+    <row r="127" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3901,12 +3895,12 @@
       <c r="H127" s="3"/>
       <c r="I127" s="3"/>
       <c r="J127" s="5"/>
-      <c r="Q127" s="7"/>
+      <c r="P127" s="7"/>
+      <c r="Q127" s="9"/>
       <c r="R127" s="9"/>
-      <c r="S127" s="9"/>
-      <c r="Y127" s="11"/>
-    </row>
-    <row r="128" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X127" s="11"/>
+    </row>
+    <row r="128" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3914,12 +3908,12 @@
       <c r="H128" s="3"/>
       <c r="I128" s="3"/>
       <c r="J128" s="5"/>
-      <c r="Q128" s="7"/>
+      <c r="P128" s="7"/>
+      <c r="Q128" s="9"/>
       <c r="R128" s="9"/>
-      <c r="S128" s="9"/>
-      <c r="Y128" s="11"/>
-    </row>
-    <row r="129" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X128" s="11"/>
+    </row>
+    <row r="129" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3927,12 +3921,12 @@
       <c r="H129" s="3"/>
       <c r="I129" s="3"/>
       <c r="J129" s="5"/>
-      <c r="Q129" s="7"/>
+      <c r="P129" s="7"/>
+      <c r="Q129" s="9"/>
       <c r="R129" s="9"/>
-      <c r="S129" s="9"/>
-      <c r="Y129" s="11"/>
-    </row>
-    <row r="130" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X129" s="11"/>
+    </row>
+    <row r="130" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3940,12 +3934,12 @@
       <c r="H130" s="3"/>
       <c r="I130" s="3"/>
       <c r="J130" s="5"/>
-      <c r="Q130" s="7"/>
+      <c r="P130" s="7"/>
+      <c r="Q130" s="9"/>
       <c r="R130" s="9"/>
-      <c r="S130" s="9"/>
-      <c r="Y130" s="11"/>
-    </row>
-    <row r="131" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X130" s="11"/>
+    </row>
+    <row r="131" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3953,12 +3947,12 @@
       <c r="H131" s="3"/>
       <c r="I131" s="3"/>
       <c r="J131" s="5"/>
-      <c r="Q131" s="7"/>
+      <c r="P131" s="7"/>
+      <c r="Q131" s="9"/>
       <c r="R131" s="9"/>
-      <c r="S131" s="9"/>
-      <c r="Y131" s="11"/>
-    </row>
-    <row r="132" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X131" s="11"/>
+    </row>
+    <row r="132" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3966,12 +3960,12 @@
       <c r="H132" s="3"/>
       <c r="I132" s="3"/>
       <c r="J132" s="5"/>
-      <c r="Q132" s="7"/>
+      <c r="P132" s="7"/>
+      <c r="Q132" s="9"/>
       <c r="R132" s="9"/>
-      <c r="S132" s="9"/>
-      <c r="Y132" s="11"/>
-    </row>
-    <row r="133" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X132" s="11"/>
+    </row>
+    <row r="133" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3979,12 +3973,12 @@
       <c r="H133" s="3"/>
       <c r="I133" s="3"/>
       <c r="J133" s="5"/>
-      <c r="Q133" s="7"/>
+      <c r="P133" s="7"/>
+      <c r="Q133" s="9"/>
       <c r="R133" s="9"/>
-      <c r="S133" s="9"/>
-      <c r="Y133" s="11"/>
-    </row>
-    <row r="134" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X133" s="11"/>
+    </row>
+    <row r="134" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3992,12 +3986,12 @@
       <c r="H134" s="3"/>
       <c r="I134" s="3"/>
       <c r="J134" s="5"/>
-      <c r="Q134" s="7"/>
+      <c r="P134" s="7"/>
+      <c r="Q134" s="9"/>
       <c r="R134" s="9"/>
-      <c r="S134" s="9"/>
-      <c r="Y134" s="11"/>
-    </row>
-    <row r="135" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X134" s="11"/>
+    </row>
+    <row r="135" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4005,12 +3999,12 @@
       <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="5"/>
-      <c r="Q135" s="7"/>
+      <c r="P135" s="7"/>
+      <c r="Q135" s="9"/>
       <c r="R135" s="9"/>
-      <c r="S135" s="9"/>
-      <c r="Y135" s="11"/>
-    </row>
-    <row r="136" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X135" s="11"/>
+    </row>
+    <row r="136" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4018,12 +4012,12 @@
       <c r="H136" s="3"/>
       <c r="I136" s="3"/>
       <c r="J136" s="5"/>
-      <c r="Q136" s="7"/>
+      <c r="P136" s="7"/>
+      <c r="Q136" s="9"/>
       <c r="R136" s="9"/>
-      <c r="S136" s="9"/>
-      <c r="Y136" s="11"/>
-    </row>
-    <row r="137" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X136" s="11"/>
+    </row>
+    <row r="137" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4031,12 +4025,12 @@
       <c r="H137" s="3"/>
       <c r="I137" s="3"/>
       <c r="J137" s="5"/>
-      <c r="Q137" s="7"/>
+      <c r="P137" s="7"/>
+      <c r="Q137" s="9"/>
       <c r="R137" s="9"/>
-      <c r="S137" s="9"/>
-      <c r="Y137" s="11"/>
-    </row>
-    <row r="138" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X137" s="11"/>
+    </row>
+    <row r="138" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4044,12 +4038,12 @@
       <c r="H138" s="3"/>
       <c r="I138" s="3"/>
       <c r="J138" s="5"/>
-      <c r="Q138" s="7"/>
+      <c r="P138" s="7"/>
+      <c r="Q138" s="9"/>
       <c r="R138" s="9"/>
-      <c r="S138" s="9"/>
-      <c r="Y138" s="11"/>
-    </row>
-    <row r="139" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X138" s="11"/>
+    </row>
+    <row r="139" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4057,12 +4051,12 @@
       <c r="H139" s="3"/>
       <c r="I139" s="3"/>
       <c r="J139" s="5"/>
-      <c r="Q139" s="7"/>
+      <c r="P139" s="7"/>
+      <c r="Q139" s="9"/>
       <c r="R139" s="9"/>
-      <c r="S139" s="9"/>
-      <c r="Y139" s="11"/>
-    </row>
-    <row r="140" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X139" s="11"/>
+    </row>
+    <row r="140" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4070,12 +4064,12 @@
       <c r="H140" s="3"/>
       <c r="I140" s="3"/>
       <c r="J140" s="5"/>
-      <c r="Q140" s="7"/>
+      <c r="P140" s="7"/>
+      <c r="Q140" s="9"/>
       <c r="R140" s="9"/>
-      <c r="S140" s="9"/>
-      <c r="Y140" s="11"/>
-    </row>
-    <row r="141" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X140" s="11"/>
+    </row>
+    <row r="141" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4083,12 +4077,12 @@
       <c r="H141" s="3"/>
       <c r="I141" s="3"/>
       <c r="J141" s="5"/>
-      <c r="Q141" s="7"/>
+      <c r="P141" s="7"/>
+      <c r="Q141" s="9"/>
       <c r="R141" s="9"/>
-      <c r="S141" s="9"/>
-      <c r="Y141" s="11"/>
-    </row>
-    <row r="142" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X141" s="11"/>
+    </row>
+    <row r="142" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4096,12 +4090,12 @@
       <c r="H142" s="3"/>
       <c r="I142" s="3"/>
       <c r="J142" s="5"/>
-      <c r="Q142" s="7"/>
+      <c r="P142" s="7"/>
+      <c r="Q142" s="9"/>
       <c r="R142" s="9"/>
-      <c r="S142" s="9"/>
-      <c r="Y142" s="11"/>
-    </row>
-    <row r="143" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X142" s="11"/>
+    </row>
+    <row r="143" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4109,12 +4103,12 @@
       <c r="H143" s="3"/>
       <c r="I143" s="3"/>
       <c r="J143" s="5"/>
-      <c r="Q143" s="7"/>
+      <c r="P143" s="7"/>
+      <c r="Q143" s="9"/>
       <c r="R143" s="9"/>
-      <c r="S143" s="9"/>
-      <c r="Y143" s="11"/>
-    </row>
-    <row r="144" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X143" s="11"/>
+    </row>
+    <row r="144" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4122,12 +4116,12 @@
       <c r="H144" s="3"/>
       <c r="I144" s="3"/>
       <c r="J144" s="5"/>
-      <c r="Q144" s="7"/>
+      <c r="P144" s="7"/>
+      <c r="Q144" s="9"/>
       <c r="R144" s="9"/>
-      <c r="S144" s="9"/>
-      <c r="Y144" s="11"/>
-    </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X144" s="11"/>
+    </row>
+    <row r="145" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4135,12 +4129,12 @@
       <c r="H145" s="3"/>
       <c r="I145" s="3"/>
       <c r="J145" s="5"/>
-      <c r="Q145" s="7"/>
+      <c r="P145" s="7"/>
+      <c r="Q145" s="9"/>
       <c r="R145" s="9"/>
-      <c r="S145" s="9"/>
-      <c r="Y145" s="11"/>
-    </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X145" s="11"/>
+    </row>
+    <row r="146" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4148,12 +4142,12 @@
       <c r="H146" s="3"/>
       <c r="I146" s="3"/>
       <c r="J146" s="5"/>
-      <c r="Q146" s="7"/>
+      <c r="P146" s="7"/>
+      <c r="Q146" s="9"/>
       <c r="R146" s="9"/>
-      <c r="S146" s="9"/>
-      <c r="Y146" s="11"/>
-    </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X146" s="11"/>
+    </row>
+    <row r="147" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4161,12 +4155,12 @@
       <c r="H147" s="3"/>
       <c r="I147" s="3"/>
       <c r="J147" s="5"/>
-      <c r="Q147" s="7"/>
+      <c r="P147" s="7"/>
+      <c r="Q147" s="9"/>
       <c r="R147" s="9"/>
-      <c r="S147" s="9"/>
-      <c r="Y147" s="11"/>
-    </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X147" s="11"/>
+    </row>
+    <row r="148" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4174,12 +4168,12 @@
       <c r="H148" s="3"/>
       <c r="I148" s="3"/>
       <c r="J148" s="5"/>
-      <c r="Q148" s="7"/>
+      <c r="P148" s="7"/>
+      <c r="Q148" s="9"/>
       <c r="R148" s="9"/>
-      <c r="S148" s="9"/>
-      <c r="Y148" s="11"/>
-    </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X148" s="11"/>
+    </row>
+    <row r="149" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4187,12 +4181,12 @@
       <c r="H149" s="3"/>
       <c r="I149" s="3"/>
       <c r="J149" s="5"/>
-      <c r="Q149" s="7"/>
+      <c r="P149" s="7"/>
+      <c r="Q149" s="9"/>
       <c r="R149" s="9"/>
-      <c r="S149" s="9"/>
-      <c r="Y149" s="11"/>
-    </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X149" s="11"/>
+    </row>
+    <row r="150" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4200,12 +4194,12 @@
       <c r="H150" s="3"/>
       <c r="I150" s="3"/>
       <c r="J150" s="5"/>
-      <c r="Q150" s="7"/>
+      <c r="P150" s="7"/>
+      <c r="Q150" s="9"/>
       <c r="R150" s="9"/>
-      <c r="S150" s="9"/>
-      <c r="Y150" s="11"/>
-    </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X150" s="11"/>
+    </row>
+    <row r="151" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4213,12 +4207,12 @@
       <c r="H151" s="3"/>
       <c r="I151" s="3"/>
       <c r="J151" s="5"/>
-      <c r="Q151" s="7"/>
+      <c r="P151" s="7"/>
+      <c r="Q151" s="9"/>
       <c r="R151" s="9"/>
-      <c r="S151" s="9"/>
-      <c r="Y151" s="11"/>
-    </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X151" s="11"/>
+    </row>
+    <row r="152" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4226,12 +4220,12 @@
       <c r="H152" s="3"/>
       <c r="I152" s="3"/>
       <c r="J152" s="5"/>
-      <c r="Q152" s="7"/>
+      <c r="P152" s="7"/>
+      <c r="Q152" s="9"/>
       <c r="R152" s="9"/>
-      <c r="S152" s="9"/>
-      <c r="Y152" s="11"/>
-    </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X152" s="11"/>
+    </row>
+    <row r="153" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4239,12 +4233,12 @@
       <c r="H153" s="3"/>
       <c r="I153" s="3"/>
       <c r="J153" s="5"/>
-      <c r="Q153" s="7"/>
+      <c r="P153" s="7"/>
+      <c r="Q153" s="9"/>
       <c r="R153" s="9"/>
-      <c r="S153" s="9"/>
-      <c r="Y153" s="11"/>
-    </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X153" s="11"/>
+    </row>
+    <row r="154" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4252,12 +4246,12 @@
       <c r="H154" s="3"/>
       <c r="I154" s="3"/>
       <c r="J154" s="5"/>
-      <c r="Q154" s="7"/>
+      <c r="P154" s="7"/>
+      <c r="Q154" s="9"/>
       <c r="R154" s="9"/>
-      <c r="S154" s="9"/>
-      <c r="Y154" s="11"/>
-    </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X154" s="11"/>
+    </row>
+    <row r="155" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4265,12 +4259,12 @@
       <c r="H155" s="3"/>
       <c r="I155" s="3"/>
       <c r="J155" s="5"/>
-      <c r="Q155" s="7"/>
+      <c r="P155" s="7"/>
+      <c r="Q155" s="9"/>
       <c r="R155" s="9"/>
-      <c r="S155" s="9"/>
-      <c r="Y155" s="11"/>
-    </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X155" s="11"/>
+    </row>
+    <row r="156" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4278,12 +4272,12 @@
       <c r="H156" s="3"/>
       <c r="I156" s="3"/>
       <c r="J156" s="5"/>
-      <c r="Q156" s="7"/>
+      <c r="P156" s="7"/>
+      <c r="Q156" s="9"/>
       <c r="R156" s="9"/>
-      <c r="S156" s="9"/>
-      <c r="Y156" s="11"/>
-    </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X156" s="11"/>
+    </row>
+    <row r="157" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4291,12 +4285,12 @@
       <c r="H157" s="3"/>
       <c r="I157" s="3"/>
       <c r="J157" s="5"/>
-      <c r="Q157" s="7"/>
+      <c r="P157" s="7"/>
+      <c r="Q157" s="9"/>
       <c r="R157" s="9"/>
-      <c r="S157" s="9"/>
-      <c r="Y157" s="11"/>
-    </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X157" s="11"/>
+    </row>
+    <row r="158" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4304,12 +4298,12 @@
       <c r="H158" s="3"/>
       <c r="I158" s="3"/>
       <c r="J158" s="5"/>
-      <c r="Q158" s="7"/>
+      <c r="P158" s="7"/>
+      <c r="Q158" s="9"/>
       <c r="R158" s="9"/>
-      <c r="S158" s="9"/>
-      <c r="Y158" s="11"/>
-    </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X158" s="11"/>
+    </row>
+    <row r="159" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4317,12 +4311,12 @@
       <c r="H159" s="3"/>
       <c r="I159" s="3"/>
       <c r="J159" s="5"/>
-      <c r="Q159" s="7"/>
+      <c r="P159" s="7"/>
+      <c r="Q159" s="9"/>
       <c r="R159" s="9"/>
-      <c r="S159" s="9"/>
-      <c r="Y159" s="11"/>
-    </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X159" s="11"/>
+    </row>
+    <row r="160" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4330,12 +4324,12 @@
       <c r="H160" s="3"/>
       <c r="I160" s="3"/>
       <c r="J160" s="5"/>
-      <c r="Q160" s="7"/>
+      <c r="P160" s="7"/>
+      <c r="Q160" s="9"/>
       <c r="R160" s="9"/>
-      <c r="S160" s="9"/>
-      <c r="Y160" s="11"/>
-    </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X160" s="11"/>
+    </row>
+    <row r="161" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4343,12 +4337,12 @@
       <c r="H161" s="3"/>
       <c r="I161" s="3"/>
       <c r="J161" s="5"/>
-      <c r="Q161" s="7"/>
+      <c r="P161" s="7"/>
+      <c r="Q161" s="9"/>
       <c r="R161" s="9"/>
-      <c r="S161" s="9"/>
-      <c r="Y161" s="11"/>
-    </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X161" s="11"/>
+    </row>
+    <row r="162" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4356,12 +4350,12 @@
       <c r="H162" s="3"/>
       <c r="I162" s="3"/>
       <c r="J162" s="5"/>
-      <c r="Q162" s="7"/>
+      <c r="P162" s="7"/>
+      <c r="Q162" s="9"/>
       <c r="R162" s="9"/>
-      <c r="S162" s="9"/>
-      <c r="Y162" s="11"/>
-    </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X162" s="11"/>
+    </row>
+    <row r="163" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4369,12 +4363,12 @@
       <c r="H163" s="3"/>
       <c r="I163" s="3"/>
       <c r="J163" s="5"/>
-      <c r="Q163" s="7"/>
+      <c r="P163" s="7"/>
+      <c r="Q163" s="9"/>
       <c r="R163" s="9"/>
-      <c r="S163" s="9"/>
-      <c r="Y163" s="11"/>
-    </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X163" s="11"/>
+    </row>
+    <row r="164" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -4382,12 +4376,12 @@
       <c r="H164" s="3"/>
       <c r="I164" s="3"/>
       <c r="J164" s="5"/>
-      <c r="Q164" s="7"/>
+      <c r="P164" s="7"/>
+      <c r="Q164" s="9"/>
       <c r="R164" s="9"/>
-      <c r="S164" s="9"/>
-      <c r="Y164" s="11"/>
-    </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X164" s="11"/>
+    </row>
+    <row r="165" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -4395,12 +4389,12 @@
       <c r="H165" s="3"/>
       <c r="I165" s="3"/>
       <c r="J165" s="5"/>
-      <c r="Q165" s="7"/>
+      <c r="P165" s="7"/>
+      <c r="Q165" s="9"/>
       <c r="R165" s="9"/>
-      <c r="S165" s="9"/>
-      <c r="Y165" s="11"/>
-    </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X165" s="11"/>
+    </row>
+    <row r="166" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -4408,12 +4402,12 @@
       <c r="H166" s="3"/>
       <c r="I166" s="3"/>
       <c r="J166" s="5"/>
-      <c r="Q166" s="7"/>
+      <c r="P166" s="7"/>
+      <c r="Q166" s="9"/>
       <c r="R166" s="9"/>
-      <c r="S166" s="9"/>
-      <c r="Y166" s="11"/>
-    </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X166" s="11"/>
+    </row>
+    <row r="167" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -4421,12 +4415,12 @@
       <c r="H167" s="3"/>
       <c r="I167" s="3"/>
       <c r="J167" s="5"/>
-      <c r="Q167" s="7"/>
+      <c r="P167" s="7"/>
+      <c r="Q167" s="9"/>
       <c r="R167" s="9"/>
-      <c r="S167" s="9"/>
-      <c r="Y167" s="11"/>
-    </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X167" s="11"/>
+    </row>
+    <row r="168" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -4434,12 +4428,12 @@
       <c r="H168" s="3"/>
       <c r="I168" s="3"/>
       <c r="J168" s="5"/>
-      <c r="Q168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="9"/>
       <c r="R168" s="9"/>
-      <c r="S168" s="9"/>
-      <c r="Y168" s="11"/>
-    </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X168" s="11"/>
+    </row>
+    <row r="169" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -4447,12 +4441,12 @@
       <c r="H169" s="3"/>
       <c r="I169" s="3"/>
       <c r="J169" s="5"/>
-      <c r="Q169" s="7"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="9"/>
       <c r="R169" s="9"/>
-      <c r="S169" s="9"/>
-      <c r="Y169" s="11"/>
-    </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X169" s="11"/>
+    </row>
+    <row r="170" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -4460,12 +4454,12 @@
       <c r="H170" s="3"/>
       <c r="I170" s="3"/>
       <c r="J170" s="5"/>
-      <c r="Q170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="9"/>
       <c r="R170" s="9"/>
-      <c r="S170" s="9"/>
-      <c r="Y170" s="11"/>
-    </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X170" s="11"/>
+    </row>
+    <row r="171" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -4473,12 +4467,12 @@
       <c r="H171" s="3"/>
       <c r="I171" s="3"/>
       <c r="J171" s="5"/>
-      <c r="Q171" s="7"/>
+      <c r="P171" s="7"/>
+      <c r="Q171" s="9"/>
       <c r="R171" s="9"/>
-      <c r="S171" s="9"/>
-      <c r="Y171" s="11"/>
-    </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X171" s="11"/>
+    </row>
+    <row r="172" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -4486,12 +4480,12 @@
       <c r="H172" s="3"/>
       <c r="I172" s="3"/>
       <c r="J172" s="5"/>
-      <c r="Q172" s="7"/>
+      <c r="P172" s="7"/>
+      <c r="Q172" s="9"/>
       <c r="R172" s="9"/>
-      <c r="S172" s="9"/>
-      <c r="Y172" s="11"/>
-    </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X172" s="11"/>
+    </row>
+    <row r="173" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -4499,12 +4493,12 @@
       <c r="H173" s="3"/>
       <c r="I173" s="3"/>
       <c r="J173" s="5"/>
-      <c r="Q173" s="7"/>
+      <c r="P173" s="7"/>
+      <c r="Q173" s="9"/>
       <c r="R173" s="9"/>
-      <c r="S173" s="9"/>
-      <c r="Y173" s="11"/>
-    </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X173" s="11"/>
+    </row>
+    <row r="174" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -4512,12 +4506,12 @@
       <c r="H174" s="3"/>
       <c r="I174" s="3"/>
       <c r="J174" s="5"/>
-      <c r="Q174" s="7"/>
+      <c r="P174" s="7"/>
+      <c r="Q174" s="9"/>
       <c r="R174" s="9"/>
-      <c r="S174" s="9"/>
-      <c r="Y174" s="11"/>
-    </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X174" s="11"/>
+    </row>
+    <row r="175" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -4525,12 +4519,12 @@
       <c r="H175" s="3"/>
       <c r="I175" s="3"/>
       <c r="J175" s="5"/>
-      <c r="Q175" s="7"/>
+      <c r="P175" s="7"/>
+      <c r="Q175" s="9"/>
       <c r="R175" s="9"/>
-      <c r="S175" s="9"/>
-      <c r="Y175" s="11"/>
-    </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X175" s="11"/>
+    </row>
+    <row r="176" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -4538,12 +4532,12 @@
       <c r="H176" s="3"/>
       <c r="I176" s="3"/>
       <c r="J176" s="5"/>
-      <c r="Q176" s="7"/>
+      <c r="P176" s="7"/>
+      <c r="Q176" s="9"/>
       <c r="R176" s="9"/>
-      <c r="S176" s="9"/>
-      <c r="Y176" s="11"/>
-    </row>
-    <row r="177" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X176" s="11"/>
+    </row>
+    <row r="177" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -4551,12 +4545,12 @@
       <c r="H177" s="3"/>
       <c r="I177" s="3"/>
       <c r="J177" s="5"/>
-      <c r="Q177" s="7"/>
+      <c r="P177" s="7"/>
+      <c r="Q177" s="9"/>
       <c r="R177" s="9"/>
-      <c r="S177" s="9"/>
-      <c r="Y177" s="11"/>
-    </row>
-    <row r="178" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X177" s="11"/>
+    </row>
+    <row r="178" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -4564,12 +4558,12 @@
       <c r="H178" s="3"/>
       <c r="I178" s="3"/>
       <c r="J178" s="5"/>
-      <c r="Q178" s="7"/>
+      <c r="P178" s="7"/>
+      <c r="Q178" s="9"/>
       <c r="R178" s="9"/>
-      <c r="S178" s="9"/>
-      <c r="Y178" s="11"/>
-    </row>
-    <row r="179" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X178" s="11"/>
+    </row>
+    <row r="179" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4577,12 +4571,12 @@
       <c r="H179" s="3"/>
       <c r="I179" s="3"/>
       <c r="J179" s="5"/>
-      <c r="Q179" s="7"/>
+      <c r="P179" s="7"/>
+      <c r="Q179" s="9"/>
       <c r="R179" s="9"/>
-      <c r="S179" s="9"/>
-      <c r="Y179" s="11"/>
-    </row>
-    <row r="180" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X179" s="11"/>
+    </row>
+    <row r="180" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4590,12 +4584,12 @@
       <c r="H180" s="3"/>
       <c r="I180" s="3"/>
       <c r="J180" s="5"/>
-      <c r="Q180" s="7"/>
+      <c r="P180" s="7"/>
+      <c r="Q180" s="9"/>
       <c r="R180" s="9"/>
-      <c r="S180" s="9"/>
-      <c r="Y180" s="11"/>
-    </row>
-    <row r="181" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X180" s="11"/>
+    </row>
+    <row r="181" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4603,12 +4597,12 @@
       <c r="H181" s="3"/>
       <c r="I181" s="3"/>
       <c r="J181" s="5"/>
-      <c r="Q181" s="7"/>
+      <c r="P181" s="7"/>
+      <c r="Q181" s="9"/>
       <c r="R181" s="9"/>
-      <c r="S181" s="9"/>
-      <c r="Y181" s="11"/>
-    </row>
-    <row r="182" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X181" s="11"/>
+    </row>
+    <row r="182" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -4616,12 +4610,12 @@
       <c r="H182" s="3"/>
       <c r="I182" s="3"/>
       <c r="J182" s="5"/>
-      <c r="Q182" s="7"/>
+      <c r="P182" s="7"/>
+      <c r="Q182" s="9"/>
       <c r="R182" s="9"/>
-      <c r="S182" s="9"/>
-      <c r="Y182" s="11"/>
-    </row>
-    <row r="183" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X182" s="11"/>
+    </row>
+    <row r="183" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -4629,12 +4623,12 @@
       <c r="H183" s="3"/>
       <c r="I183" s="3"/>
       <c r="J183" s="5"/>
-      <c r="Q183" s="7"/>
+      <c r="P183" s="7"/>
+      <c r="Q183" s="9"/>
       <c r="R183" s="9"/>
-      <c r="S183" s="9"/>
-      <c r="Y183" s="11"/>
-    </row>
-    <row r="184" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X183" s="11"/>
+    </row>
+    <row r="184" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4642,12 +4636,12 @@
       <c r="H184" s="3"/>
       <c r="I184" s="3"/>
       <c r="J184" s="5"/>
-      <c r="Q184" s="7"/>
+      <c r="P184" s="7"/>
+      <c r="Q184" s="9"/>
       <c r="R184" s="9"/>
-      <c r="S184" s="9"/>
-      <c r="Y184" s="11"/>
-    </row>
-    <row r="185" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X184" s="11"/>
+    </row>
+    <row r="185" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4655,12 +4649,12 @@
       <c r="H185" s="3"/>
       <c r="I185" s="3"/>
       <c r="J185" s="5"/>
-      <c r="Q185" s="7"/>
+      <c r="P185" s="7"/>
+      <c r="Q185" s="9"/>
       <c r="R185" s="9"/>
-      <c r="S185" s="9"/>
-      <c r="Y185" s="11"/>
-    </row>
-    <row r="186" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X185" s="11"/>
+    </row>
+    <row r="186" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -4668,12 +4662,12 @@
       <c r="H186" s="3"/>
       <c r="I186" s="3"/>
       <c r="J186" s="5"/>
-      <c r="Q186" s="7"/>
+      <c r="P186" s="7"/>
+      <c r="Q186" s="9"/>
       <c r="R186" s="9"/>
-      <c r="S186" s="9"/>
-      <c r="Y186" s="11"/>
-    </row>
-    <row r="187" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X186" s="11"/>
+    </row>
+    <row r="187" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -4681,12 +4675,12 @@
       <c r="H187" s="3"/>
       <c r="I187" s="3"/>
       <c r="J187" s="5"/>
-      <c r="Q187" s="7"/>
+      <c r="P187" s="7"/>
+      <c r="Q187" s="9"/>
       <c r="R187" s="9"/>
-      <c r="S187" s="9"/>
-      <c r="Y187" s="11"/>
-    </row>
-    <row r="188" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X187" s="11"/>
+    </row>
+    <row r="188" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -4694,12 +4688,12 @@
       <c r="H188" s="3"/>
       <c r="I188" s="3"/>
       <c r="J188" s="5"/>
-      <c r="Q188" s="7"/>
+      <c r="P188" s="7"/>
+      <c r="Q188" s="9"/>
       <c r="R188" s="9"/>
-      <c r="S188" s="9"/>
-      <c r="Y188" s="11"/>
-    </row>
-    <row r="189" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X188" s="11"/>
+    </row>
+    <row r="189" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -4707,12 +4701,12 @@
       <c r="H189" s="3"/>
       <c r="I189" s="3"/>
       <c r="J189" s="5"/>
-      <c r="Q189" s="7"/>
+      <c r="P189" s="7"/>
+      <c r="Q189" s="9"/>
       <c r="R189" s="9"/>
-      <c r="S189" s="9"/>
-      <c r="Y189" s="11"/>
-    </row>
-    <row r="190" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X189" s="11"/>
+    </row>
+    <row r="190" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -4720,13 +4714,13 @@
       <c r="H190" s="3"/>
       <c r="I190" s="3"/>
       <c r="J190" s="5"/>
-      <c r="O190" s="7"/>
-      <c r="Q190" s="7"/>
+      <c r="N190" s="7"/>
+      <c r="P190" s="7"/>
+      <c r="Q190" s="9"/>
       <c r="R190" s="9"/>
-      <c r="S190" s="9"/>
-      <c r="Y190" s="11"/>
-    </row>
-    <row r="191" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X190" s="11"/>
+    </row>
+    <row r="191" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -4734,12 +4728,12 @@
       <c r="H191" s="3"/>
       <c r="I191" s="3"/>
       <c r="J191" s="5"/>
-      <c r="Q191" s="7"/>
+      <c r="P191" s="7"/>
+      <c r="Q191" s="9"/>
       <c r="R191" s="9"/>
-      <c r="S191" s="9"/>
-      <c r="Y191" s="11"/>
-    </row>
-    <row r="192" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X191" s="11"/>
+    </row>
+    <row r="192" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -4747,12 +4741,12 @@
       <c r="H192" s="3"/>
       <c r="I192" s="3"/>
       <c r="J192" s="5"/>
-      <c r="Q192" s="7"/>
+      <c r="P192" s="7"/>
+      <c r="Q192" s="9"/>
       <c r="R192" s="9"/>
-      <c r="S192" s="9"/>
-      <c r="Y192" s="11"/>
-    </row>
-    <row r="193" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X192" s="11"/>
+    </row>
+    <row r="193" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -4760,12 +4754,12 @@
       <c r="H193" s="3"/>
       <c r="I193" s="3"/>
       <c r="J193" s="5"/>
-      <c r="Q193" s="7"/>
+      <c r="P193" s="7"/>
+      <c r="Q193" s="9"/>
       <c r="R193" s="9"/>
-      <c r="S193" s="9"/>
-      <c r="Y193" s="11"/>
-    </row>
-    <row r="194" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X193" s="11"/>
+    </row>
+    <row r="194" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -4773,12 +4767,12 @@
       <c r="H194" s="3"/>
       <c r="I194" s="3"/>
       <c r="J194" s="5"/>
-      <c r="Q194" s="7"/>
+      <c r="P194" s="7"/>
+      <c r="Q194" s="9"/>
       <c r="R194" s="9"/>
-      <c r="S194" s="9"/>
-      <c r="Y194" s="11"/>
-    </row>
-    <row r="195" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X194" s="11"/>
+    </row>
+    <row r="195" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -4786,12 +4780,12 @@
       <c r="H195" s="3"/>
       <c r="I195" s="3"/>
       <c r="J195" s="5"/>
-      <c r="Q195" s="7"/>
+      <c r="P195" s="7"/>
+      <c r="Q195" s="9"/>
       <c r="R195" s="9"/>
-      <c r="S195" s="9"/>
-      <c r="Y195" s="11"/>
-    </row>
-    <row r="196" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X195" s="11"/>
+    </row>
+    <row r="196" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -4799,12 +4793,12 @@
       <c r="H196" s="3"/>
       <c r="I196" s="3"/>
       <c r="J196" s="5"/>
-      <c r="Q196" s="7"/>
+      <c r="P196" s="7"/>
+      <c r="Q196" s="9"/>
       <c r="R196" s="9"/>
-      <c r="S196" s="9"/>
-      <c r="Y196" s="11"/>
-    </row>
-    <row r="197" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X196" s="11"/>
+    </row>
+    <row r="197" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -4812,12 +4806,12 @@
       <c r="H197" s="3"/>
       <c r="I197" s="3"/>
       <c r="J197" s="5"/>
-      <c r="Q197" s="7"/>
+      <c r="P197" s="7"/>
+      <c r="Q197" s="9"/>
       <c r="R197" s="9"/>
-      <c r="S197" s="9"/>
-      <c r="Y197" s="11"/>
-    </row>
-    <row r="198" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X197" s="11"/>
+    </row>
+    <row r="198" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -4825,12 +4819,12 @@
       <c r="H198" s="3"/>
       <c r="I198" s="3"/>
       <c r="J198" s="5"/>
-      <c r="Q198" s="7"/>
+      <c r="P198" s="7"/>
+      <c r="Q198" s="9"/>
       <c r="R198" s="9"/>
-      <c r="S198" s="9"/>
-      <c r="Y198" s="11"/>
-    </row>
-    <row r="199" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X198" s="11"/>
+    </row>
+    <row r="199" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -4838,12 +4832,12 @@
       <c r="H199" s="3"/>
       <c r="I199" s="3"/>
       <c r="J199" s="5"/>
-      <c r="Q199" s="7"/>
+      <c r="P199" s="7"/>
+      <c r="Q199" s="9"/>
       <c r="R199" s="9"/>
-      <c r="S199" s="9"/>
-      <c r="Y199" s="11"/>
-    </row>
-    <row r="200" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X199" s="11"/>
+    </row>
+    <row r="200" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -4851,12 +4845,12 @@
       <c r="H200" s="3"/>
       <c r="I200" s="3"/>
       <c r="J200" s="5"/>
-      <c r="Q200" s="7"/>
+      <c r="P200" s="7"/>
+      <c r="Q200" s="9"/>
       <c r="R200" s="9"/>
-      <c r="S200" s="9"/>
-      <c r="Y200" s="11"/>
-    </row>
-    <row r="201" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X200" s="11"/>
+    </row>
+    <row r="201" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -4864,12 +4858,12 @@
       <c r="H201" s="3"/>
       <c r="I201" s="3"/>
       <c r="J201" s="5"/>
-      <c r="Q201" s="7"/>
+      <c r="P201" s="7"/>
+      <c r="Q201" s="9"/>
       <c r="R201" s="9"/>
-      <c r="S201" s="9"/>
-      <c r="Y201" s="11"/>
-    </row>
-    <row r="202" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X201" s="11"/>
+    </row>
+    <row r="202" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -4877,12 +4871,12 @@
       <c r="H202" s="3"/>
       <c r="I202" s="3"/>
       <c r="J202" s="5"/>
-      <c r="Q202" s="7"/>
+      <c r="P202" s="7"/>
+      <c r="Q202" s="9"/>
       <c r="R202" s="9"/>
-      <c r="S202" s="9"/>
-      <c r="Y202" s="11"/>
-    </row>
-    <row r="203" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X202" s="11"/>
+    </row>
+    <row r="203" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -4890,12 +4884,12 @@
       <c r="H203" s="3"/>
       <c r="I203" s="3"/>
       <c r="J203" s="5"/>
-      <c r="Q203" s="7"/>
+      <c r="P203" s="7"/>
+      <c r="Q203" s="9"/>
       <c r="R203" s="9"/>
-      <c r="S203" s="9"/>
-      <c r="Y203" s="11"/>
-    </row>
-    <row r="204" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X203" s="11"/>
+    </row>
+    <row r="204" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -4903,12 +4897,12 @@
       <c r="H204" s="3"/>
       <c r="I204" s="3"/>
       <c r="J204" s="5"/>
-      <c r="Q204" s="7"/>
+      <c r="P204" s="7"/>
+      <c r="Q204" s="9"/>
       <c r="R204" s="9"/>
-      <c r="S204" s="9"/>
-      <c r="Y204" s="11"/>
-    </row>
-    <row r="205" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X204" s="11"/>
+    </row>
+    <row r="205" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -4916,12 +4910,12 @@
       <c r="H205" s="3"/>
       <c r="I205" s="3"/>
       <c r="J205" s="5"/>
-      <c r="Q205" s="7"/>
+      <c r="P205" s="7"/>
+      <c r="Q205" s="9"/>
       <c r="R205" s="9"/>
-      <c r="S205" s="9"/>
-      <c r="Y205" s="11"/>
-    </row>
-    <row r="206" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X205" s="11"/>
+    </row>
+    <row r="206" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -4929,12 +4923,12 @@
       <c r="H206" s="3"/>
       <c r="I206" s="3"/>
       <c r="J206" s="5"/>
-      <c r="Q206" s="7"/>
+      <c r="P206" s="7"/>
+      <c r="Q206" s="9"/>
       <c r="R206" s="9"/>
-      <c r="S206" s="9"/>
-      <c r="Y206" s="11"/>
-    </row>
-    <row r="207" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X206" s="11"/>
+    </row>
+    <row r="207" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -4942,13 +4936,13 @@
       <c r="H207" s="3"/>
       <c r="I207" s="3"/>
       <c r="J207" s="5"/>
-      <c r="O207" s="7"/>
-      <c r="Q207" s="7"/>
+      <c r="N207" s="7"/>
+      <c r="P207" s="7"/>
+      <c r="Q207" s="9"/>
       <c r="R207" s="9"/>
-      <c r="S207" s="9"/>
-      <c r="Y207" s="11"/>
-    </row>
-    <row r="208" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X207" s="11"/>
+    </row>
+    <row r="208" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -4956,13 +4950,13 @@
       <c r="H208" s="3"/>
       <c r="I208" s="3"/>
       <c r="J208" s="5"/>
-      <c r="O208" s="7"/>
-      <c r="Q208" s="7"/>
+      <c r="N208" s="7"/>
+      <c r="P208" s="7"/>
+      <c r="Q208" s="9"/>
       <c r="R208" s="9"/>
-      <c r="S208" s="9"/>
-      <c r="Y208" s="11"/>
-    </row>
-    <row r="209" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X208" s="11"/>
+    </row>
+    <row r="209" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -4970,13 +4964,13 @@
       <c r="H209" s="3"/>
       <c r="I209" s="3"/>
       <c r="J209" s="5"/>
-      <c r="O209" s="7"/>
-      <c r="Q209" s="7"/>
+      <c r="N209" s="7"/>
+      <c r="P209" s="7"/>
+      <c r="Q209" s="9"/>
       <c r="R209" s="9"/>
-      <c r="S209" s="9"/>
-      <c r="Y209" s="11"/>
-    </row>
-    <row r="210" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X209" s="11"/>
+    </row>
+    <row r="210" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -4984,13 +4978,13 @@
       <c r="H210" s="3"/>
       <c r="I210" s="3"/>
       <c r="J210" s="5"/>
-      <c r="O210" s="7"/>
-      <c r="Q210" s="7"/>
+      <c r="N210" s="7"/>
+      <c r="P210" s="7"/>
+      <c r="Q210" s="9"/>
       <c r="R210" s="9"/>
-      <c r="S210" s="9"/>
-      <c r="Y210" s="11"/>
-    </row>
-    <row r="211" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X210" s="11"/>
+    </row>
+    <row r="211" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -4998,12 +4992,12 @@
       <c r="H211" s="3"/>
       <c r="I211" s="3"/>
       <c r="J211" s="5"/>
-      <c r="Q211" s="7"/>
+      <c r="P211" s="7"/>
+      <c r="Q211" s="9"/>
       <c r="R211" s="9"/>
-      <c r="S211" s="9"/>
-      <c r="Y211" s="11"/>
-    </row>
-    <row r="212" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X211" s="11"/>
+    </row>
+    <row r="212" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -5011,13 +5005,13 @@
       <c r="H212" s="3"/>
       <c r="I212" s="3"/>
       <c r="J212" s="5"/>
-      <c r="O212" s="7"/>
-      <c r="Q212" s="7"/>
+      <c r="N212" s="7"/>
+      <c r="P212" s="7"/>
+      <c r="Q212" s="9"/>
       <c r="R212" s="9"/>
-      <c r="S212" s="9"/>
-      <c r="Y212" s="11"/>
-    </row>
-    <row r="213" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X212" s="11"/>
+    </row>
+    <row r="213" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -5025,13 +5019,13 @@
       <c r="H213" s="3"/>
       <c r="I213" s="3"/>
       <c r="J213" s="5"/>
-      <c r="O213" s="7"/>
-      <c r="Q213" s="7"/>
+      <c r="N213" s="7"/>
+      <c r="P213" s="7"/>
+      <c r="Q213" s="9"/>
       <c r="R213" s="9"/>
-      <c r="S213" s="9"/>
-      <c r="Y213" s="11"/>
-    </row>
-    <row r="214" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X213" s="11"/>
+    </row>
+    <row r="214" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -5039,13 +5033,13 @@
       <c r="H214" s="3"/>
       <c r="I214" s="3"/>
       <c r="J214" s="5"/>
-      <c r="O214" s="7"/>
-      <c r="Q214" s="7"/>
+      <c r="N214" s="7"/>
+      <c r="P214" s="7"/>
+      <c r="Q214" s="9"/>
       <c r="R214" s="9"/>
-      <c r="S214" s="9"/>
-      <c r="Y214" s="11"/>
-    </row>
-    <row r="215" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X214" s="11"/>
+    </row>
+    <row r="215" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -5053,13 +5047,13 @@
       <c r="H215" s="3"/>
       <c r="I215" s="3"/>
       <c r="J215" s="5"/>
-      <c r="O215" s="7"/>
-      <c r="Q215" s="7"/>
+      <c r="N215" s="7"/>
+      <c r="P215" s="7"/>
+      <c r="Q215" s="9"/>
       <c r="R215" s="9"/>
-      <c r="S215" s="9"/>
-      <c r="Y215" s="11"/>
-    </row>
-    <row r="216" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X215" s="11"/>
+    </row>
+    <row r="216" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -5067,12 +5061,12 @@
       <c r="H216" s="3"/>
       <c r="I216" s="3"/>
       <c r="J216" s="5"/>
-      <c r="Q216" s="7"/>
+      <c r="P216" s="7"/>
+      <c r="Q216" s="9"/>
       <c r="R216" s="9"/>
-      <c r="S216" s="9"/>
-      <c r="Y216" s="11"/>
-    </row>
-    <row r="217" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X216" s="11"/>
+    </row>
+    <row r="217" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -5080,12 +5074,12 @@
       <c r="H217" s="3"/>
       <c r="I217" s="3"/>
       <c r="J217" s="5"/>
-      <c r="Q217" s="7"/>
+      <c r="P217" s="7"/>
+      <c r="Q217" s="9"/>
       <c r="R217" s="9"/>
-      <c r="S217" s="9"/>
-      <c r="Y217" s="11"/>
-    </row>
-    <row r="218" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X217" s="11"/>
+    </row>
+    <row r="218" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -5093,12 +5087,12 @@
       <c r="H218" s="3"/>
       <c r="I218" s="3"/>
       <c r="J218" s="5"/>
-      <c r="Q218" s="7"/>
+      <c r="P218" s="7"/>
+      <c r="Q218" s="9"/>
       <c r="R218" s="9"/>
-      <c r="S218" s="9"/>
-      <c r="Y218" s="11"/>
-    </row>
-    <row r="219" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X218" s="11"/>
+    </row>
+    <row r="219" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -5106,13 +5100,13 @@
       <c r="H219" s="3"/>
       <c r="I219" s="3"/>
       <c r="J219" s="5"/>
-      <c r="O219" s="7"/>
-      <c r="Q219" s="7"/>
+      <c r="N219" s="7"/>
+      <c r="P219" s="7"/>
+      <c r="Q219" s="9"/>
       <c r="R219" s="9"/>
-      <c r="S219" s="9"/>
-      <c r="Y219" s="11"/>
-    </row>
-    <row r="220" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X219" s="11"/>
+    </row>
+    <row r="220" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -5120,13 +5114,13 @@
       <c r="H220" s="3"/>
       <c r="I220" s="3"/>
       <c r="J220" s="5"/>
-      <c r="O220" s="7"/>
-      <c r="Q220" s="7"/>
+      <c r="N220" s="7"/>
+      <c r="P220" s="7"/>
+      <c r="Q220" s="9"/>
       <c r="R220" s="9"/>
-      <c r="S220" s="9"/>
-      <c r="Y220" s="11"/>
-    </row>
-    <row r="221" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X220" s="11"/>
+    </row>
+    <row r="221" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -5134,12 +5128,12 @@
       <c r="H221" s="3"/>
       <c r="I221" s="3"/>
       <c r="J221" s="5"/>
-      <c r="Q221" s="7"/>
+      <c r="P221" s="7"/>
+      <c r="Q221" s="9"/>
       <c r="R221" s="9"/>
-      <c r="S221" s="9"/>
-      <c r="Y221" s="11"/>
-    </row>
-    <row r="222" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X221" s="11"/>
+    </row>
+    <row r="222" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -5147,12 +5141,12 @@
       <c r="H222" s="3"/>
       <c r="I222" s="3"/>
       <c r="J222" s="5"/>
-      <c r="Q222" s="7"/>
+      <c r="P222" s="7"/>
+      <c r="Q222" s="9"/>
       <c r="R222" s="9"/>
-      <c r="S222" s="9"/>
-      <c r="Y222" s="11"/>
-    </row>
-    <row r="223" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X222" s="11"/>
+    </row>
+    <row r="223" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -5160,12 +5154,12 @@
       <c r="H223" s="3"/>
       <c r="I223" s="3"/>
       <c r="J223" s="5"/>
-      <c r="Q223" s="7"/>
+      <c r="P223" s="7"/>
+      <c r="Q223" s="9"/>
       <c r="R223" s="9"/>
-      <c r="S223" s="9"/>
-      <c r="Y223" s="11"/>
-    </row>
-    <row r="224" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X223" s="11"/>
+    </row>
+    <row r="224" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -5173,12 +5167,12 @@
       <c r="H224" s="3"/>
       <c r="I224" s="3"/>
       <c r="J224" s="5"/>
-      <c r="Q224" s="7"/>
+      <c r="P224" s="7"/>
+      <c r="Q224" s="9"/>
       <c r="R224" s="9"/>
-      <c r="S224" s="9"/>
-      <c r="Y224" s="11"/>
-    </row>
-    <row r="225" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X224" s="11"/>
+    </row>
+    <row r="225" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -5186,12 +5180,12 @@
       <c r="H225" s="3"/>
       <c r="I225" s="3"/>
       <c r="J225" s="5"/>
-      <c r="Q225" s="7"/>
+      <c r="P225" s="7"/>
+      <c r="Q225" s="9"/>
       <c r="R225" s="9"/>
-      <c r="S225" s="9"/>
-      <c r="Y225" s="11"/>
-    </row>
-    <row r="226" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X225" s="11"/>
+    </row>
+    <row r="226" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -5199,12 +5193,12 @@
       <c r="H226" s="3"/>
       <c r="I226" s="3"/>
       <c r="J226" s="5"/>
-      <c r="Q226" s="7"/>
+      <c r="P226" s="7"/>
+      <c r="Q226" s="9"/>
       <c r="R226" s="9"/>
-      <c r="S226" s="9"/>
-      <c r="Y226" s="11"/>
-    </row>
-    <row r="227" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X226" s="11"/>
+    </row>
+    <row r="227" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -5212,12 +5206,12 @@
       <c r="H227" s="3"/>
       <c r="I227" s="3"/>
       <c r="J227" s="5"/>
-      <c r="Q227" s="7"/>
+      <c r="P227" s="7"/>
+      <c r="Q227" s="9"/>
       <c r="R227" s="9"/>
-      <c r="S227" s="9"/>
-      <c r="Y227" s="11"/>
-    </row>
-    <row r="228" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X227" s="11"/>
+    </row>
+    <row r="228" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -5225,12 +5219,12 @@
       <c r="H228" s="3"/>
       <c r="I228" s="3"/>
       <c r="J228" s="5"/>
-      <c r="Q228" s="7"/>
+      <c r="P228" s="7"/>
+      <c r="Q228" s="9"/>
       <c r="R228" s="9"/>
-      <c r="S228" s="9"/>
-      <c r="Y228" s="11"/>
-    </row>
-    <row r="229" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X228" s="11"/>
+    </row>
+    <row r="229" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -5238,12 +5232,12 @@
       <c r="H229" s="3"/>
       <c r="I229" s="3"/>
       <c r="J229" s="5"/>
-      <c r="Q229" s="7"/>
+      <c r="P229" s="7"/>
+      <c r="Q229" s="9"/>
       <c r="R229" s="9"/>
-      <c r="S229" s="9"/>
-      <c r="Y229" s="11"/>
-    </row>
-    <row r="230" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X229" s="11"/>
+    </row>
+    <row r="230" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -5251,12 +5245,12 @@
       <c r="H230" s="3"/>
       <c r="I230" s="3"/>
       <c r="J230" s="5"/>
-      <c r="Q230" s="7"/>
+      <c r="P230" s="7"/>
+      <c r="Q230" s="9"/>
       <c r="R230" s="9"/>
-      <c r="S230" s="9"/>
-      <c r="Y230" s="11"/>
-    </row>
-    <row r="231" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X230" s="11"/>
+    </row>
+    <row r="231" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -5264,12 +5258,12 @@
       <c r="H231" s="3"/>
       <c r="I231" s="3"/>
       <c r="J231" s="5"/>
-      <c r="Q231" s="7"/>
+      <c r="P231" s="7"/>
+      <c r="Q231" s="9"/>
       <c r="R231" s="9"/>
-      <c r="S231" s="9"/>
-      <c r="Y231" s="11"/>
-    </row>
-    <row r="232" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X231" s="11"/>
+    </row>
+    <row r="232" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -5277,12 +5271,12 @@
       <c r="H232" s="3"/>
       <c r="I232" s="3"/>
       <c r="J232" s="5"/>
-      <c r="Q232" s="7"/>
+      <c r="P232" s="7"/>
+      <c r="Q232" s="9"/>
       <c r="R232" s="9"/>
-      <c r="S232" s="9"/>
-      <c r="Y232" s="11"/>
-    </row>
-    <row r="233" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X232" s="11"/>
+    </row>
+    <row r="233" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -5290,12 +5284,12 @@
       <c r="H233" s="3"/>
       <c r="I233" s="3"/>
       <c r="J233" s="5"/>
-      <c r="Q233" s="7"/>
+      <c r="P233" s="7"/>
+      <c r="Q233" s="9"/>
       <c r="R233" s="9"/>
-      <c r="S233" s="9"/>
-      <c r="Y233" s="11"/>
-    </row>
-    <row r="234" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X233" s="11"/>
+    </row>
+    <row r="234" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -5303,12 +5297,12 @@
       <c r="H234" s="3"/>
       <c r="I234" s="3"/>
       <c r="J234" s="5"/>
-      <c r="Q234" s="7"/>
+      <c r="P234" s="7"/>
+      <c r="Q234" s="9"/>
       <c r="R234" s="9"/>
-      <c r="S234" s="9"/>
-      <c r="Y234" s="11"/>
-    </row>
-    <row r="235" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X234" s="11"/>
+    </row>
+    <row r="235" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -5316,12 +5310,12 @@
       <c r="H235" s="3"/>
       <c r="I235" s="3"/>
       <c r="J235" s="5"/>
-      <c r="Q235" s="7"/>
+      <c r="P235" s="7"/>
+      <c r="Q235" s="9"/>
       <c r="R235" s="9"/>
-      <c r="S235" s="9"/>
-      <c r="Y235" s="11"/>
-    </row>
-    <row r="236" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X235" s="11"/>
+    </row>
+    <row r="236" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -5329,12 +5323,12 @@
       <c r="H236" s="3"/>
       <c r="I236" s="3"/>
       <c r="J236" s="5"/>
-      <c r="Q236" s="7"/>
+      <c r="P236" s="7"/>
+      <c r="Q236" s="9"/>
       <c r="R236" s="9"/>
-      <c r="S236" s="9"/>
-      <c r="Y236" s="11"/>
-    </row>
-    <row r="237" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X236" s="11"/>
+    </row>
+    <row r="237" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -5342,12 +5336,12 @@
       <c r="H237" s="3"/>
       <c r="I237" s="3"/>
       <c r="J237" s="5"/>
-      <c r="Q237" s="7"/>
+      <c r="P237" s="7"/>
+      <c r="Q237" s="9"/>
       <c r="R237" s="9"/>
-      <c r="S237" s="9"/>
-      <c r="Y237" s="11"/>
-    </row>
-    <row r="238" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X237" s="11"/>
+    </row>
+    <row r="238" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -5355,12 +5349,12 @@
       <c r="H238" s="3"/>
       <c r="I238" s="3"/>
       <c r="J238" s="5"/>
-      <c r="Q238" s="7"/>
+      <c r="P238" s="7"/>
+      <c r="Q238" s="9"/>
       <c r="R238" s="9"/>
-      <c r="S238" s="9"/>
-      <c r="Y238" s="11"/>
-    </row>
-    <row r="239" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X238" s="11"/>
+    </row>
+    <row r="239" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -5368,12 +5362,12 @@
       <c r="H239" s="3"/>
       <c r="I239" s="3"/>
       <c r="J239" s="5"/>
-      <c r="Q239" s="7"/>
+      <c r="P239" s="7"/>
+      <c r="Q239" s="9"/>
       <c r="R239" s="9"/>
-      <c r="S239" s="9"/>
-      <c r="Y239" s="11"/>
-    </row>
-    <row r="240" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X239" s="11"/>
+    </row>
+    <row r="240" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -5381,12 +5375,12 @@
       <c r="H240" s="3"/>
       <c r="I240" s="3"/>
       <c r="J240" s="5"/>
-      <c r="Q240" s="7"/>
+      <c r="P240" s="7"/>
+      <c r="Q240" s="9"/>
       <c r="R240" s="9"/>
-      <c r="S240" s="9"/>
-      <c r="Y240" s="11"/>
-    </row>
-    <row r="241" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X240" s="11"/>
+    </row>
+    <row r="241" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -5394,12 +5388,12 @@
       <c r="H241" s="3"/>
       <c r="I241" s="3"/>
       <c r="J241" s="5"/>
-      <c r="Q241" s="7"/>
+      <c r="P241" s="7"/>
+      <c r="Q241" s="9"/>
       <c r="R241" s="9"/>
-      <c r="S241" s="9"/>
-      <c r="Y241" s="11"/>
-    </row>
-    <row r="242" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X241" s="11"/>
+    </row>
+    <row r="242" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -5407,12 +5401,12 @@
       <c r="H242" s="3"/>
       <c r="I242" s="3"/>
       <c r="J242" s="5"/>
-      <c r="Q242" s="7"/>
+      <c r="P242" s="7"/>
+      <c r="Q242" s="9"/>
       <c r="R242" s="9"/>
-      <c r="S242" s="9"/>
-      <c r="Y242" s="11"/>
-    </row>
-    <row r="243" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X242" s="11"/>
+    </row>
+    <row r="243" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -5420,13 +5414,13 @@
       <c r="H243" s="3"/>
       <c r="I243" s="3"/>
       <c r="J243" s="5"/>
-      <c r="O243" s="7"/>
-      <c r="Q243" s="8"/>
+      <c r="N243" s="7"/>
+      <c r="P243" s="8"/>
+      <c r="Q243" s="9"/>
       <c r="R243" s="9"/>
-      <c r="S243" s="9"/>
-      <c r="Y243" s="11"/>
-    </row>
-    <row r="244" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X243" s="11"/>
+    </row>
+    <row r="244" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -5434,13 +5428,13 @@
       <c r="H244" s="3"/>
       <c r="I244" s="3"/>
       <c r="J244" s="5"/>
-      <c r="O244" s="7"/>
-      <c r="Q244" s="8"/>
+      <c r="N244" s="7"/>
+      <c r="P244" s="8"/>
+      <c r="Q244" s="9"/>
       <c r="R244" s="9"/>
-      <c r="S244" s="9"/>
-      <c r="Y244" s="11"/>
-    </row>
-    <row r="245" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X244" s="11"/>
+    </row>
+    <row r="245" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -5448,13 +5442,13 @@
       <c r="H245" s="3"/>
       <c r="I245" s="3"/>
       <c r="J245" s="5"/>
-      <c r="O245" s="7"/>
-      <c r="Q245" s="8"/>
+      <c r="N245" s="7"/>
+      <c r="P245" s="8"/>
+      <c r="Q245" s="9"/>
       <c r="R245" s="9"/>
-      <c r="S245" s="9"/>
-      <c r="Y245" s="11"/>
-    </row>
-    <row r="246" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X245" s="11"/>
+    </row>
+    <row r="246" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -5462,13 +5456,13 @@
       <c r="H246" s="3"/>
       <c r="I246" s="3"/>
       <c r="J246" s="5"/>
-      <c r="O246" s="7"/>
-      <c r="Q246" s="8"/>
+      <c r="N246" s="7"/>
+      <c r="P246" s="8"/>
+      <c r="Q246" s="9"/>
       <c r="R246" s="9"/>
-      <c r="S246" s="9"/>
-      <c r="Y246" s="11"/>
-    </row>
-    <row r="247" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X246" s="11"/>
+    </row>
+    <row r="247" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -5476,12 +5470,12 @@
       <c r="H247" s="3"/>
       <c r="I247" s="3"/>
       <c r="J247" s="5"/>
-      <c r="Q247" s="7"/>
+      <c r="P247" s="7"/>
+      <c r="Q247" s="9"/>
       <c r="R247" s="9"/>
-      <c r="S247" s="9"/>
-      <c r="Y247" s="11"/>
-    </row>
-    <row r="248" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X247" s="11"/>
+    </row>
+    <row r="248" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -5489,12 +5483,12 @@
       <c r="H248" s="3"/>
       <c r="I248" s="3"/>
       <c r="J248" s="5"/>
-      <c r="Q248" s="7"/>
+      <c r="P248" s="7"/>
+      <c r="Q248" s="9"/>
       <c r="R248" s="9"/>
-      <c r="S248" s="9"/>
-      <c r="Y248" s="11"/>
-    </row>
-    <row r="249" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X248" s="11"/>
+    </row>
+    <row r="249" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -5502,12 +5496,12 @@
       <c r="H249" s="3"/>
       <c r="I249" s="3"/>
       <c r="J249" s="5"/>
-      <c r="Q249" s="7"/>
+      <c r="P249" s="7"/>
+      <c r="Q249" s="9"/>
       <c r="R249" s="9"/>
-      <c r="S249" s="9"/>
-      <c r="Y249" s="11"/>
-    </row>
-    <row r="250" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X249" s="11"/>
+    </row>
+    <row r="250" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -5515,12 +5509,12 @@
       <c r="H250" s="3"/>
       <c r="I250" s="3"/>
       <c r="J250" s="5"/>
-      <c r="Q250" s="7"/>
+      <c r="P250" s="7"/>
+      <c r="Q250" s="9"/>
       <c r="R250" s="9"/>
-      <c r="S250" s="9"/>
-      <c r="Y250" s="11"/>
-    </row>
-    <row r="251" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X250" s="11"/>
+    </row>
+    <row r="251" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -5528,12 +5522,12 @@
       <c r="H251" s="3"/>
       <c r="I251" s="3"/>
       <c r="J251" s="5"/>
-      <c r="Q251" s="7"/>
+      <c r="P251" s="7"/>
+      <c r="Q251" s="9"/>
       <c r="R251" s="9"/>
-      <c r="S251" s="9"/>
-      <c r="Y251" s="11"/>
-    </row>
-    <row r="252" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X251" s="11"/>
+    </row>
+    <row r="252" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -5541,70 +5535,70 @@
       <c r="H252" s="3"/>
       <c r="I252" s="3"/>
       <c r="J252" s="5"/>
-      <c r="Q252" s="7"/>
+      <c r="P252" s="7"/>
+      <c r="Q252" s="9"/>
       <c r="R252" s="9"/>
-      <c r="S252" s="9"/>
-      <c r="Y252" s="11"/>
-    </row>
-    <row r="253" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X252" s="11"/>
+    </row>
+    <row r="253" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
       <c r="D253" s="3"/>
       <c r="H253" s="3"/>
       <c r="J253" s="5"/>
-      <c r="Q253" s="7"/>
+      <c r="P253" s="7"/>
+      <c r="Q253" s="9"/>
       <c r="R253" s="9"/>
-      <c r="S253" s="9"/>
-      <c r="Y253" s="11"/>
-    </row>
-    <row r="254" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X253" s="11"/>
+    </row>
+    <row r="254" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
       <c r="D254" s="3"/>
       <c r="H254" s="3"/>
       <c r="J254" s="5"/>
-      <c r="Q254" s="7"/>
+      <c r="P254" s="7"/>
+      <c r="Q254" s="9"/>
       <c r="R254" s="9"/>
-      <c r="S254" s="9"/>
-      <c r="Y254" s="11"/>
-    </row>
-    <row r="255" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X254" s="11"/>
+    </row>
+    <row r="255" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
       <c r="D255" s="3"/>
       <c r="H255" s="3"/>
       <c r="J255" s="5"/>
-      <c r="Q255" s="7"/>
+      <c r="P255" s="7"/>
+      <c r="Q255" s="9"/>
       <c r="R255" s="9"/>
-      <c r="S255" s="9"/>
-      <c r="Y255" s="11"/>
-    </row>
-    <row r="256" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X255" s="11"/>
+    </row>
+    <row r="256" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
       <c r="D256" s="3"/>
       <c r="H256" s="3"/>
       <c r="J256" s="5"/>
-      <c r="Q256" s="7"/>
+      <c r="P256" s="7"/>
+      <c r="Q256" s="9"/>
       <c r="R256" s="9"/>
-      <c r="S256" s="9"/>
-      <c r="Y256" s="11"/>
-    </row>
-    <row r="257" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="X256" s="11"/>
+    </row>
+    <row r="257" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
       <c r="D257" s="3"/>
       <c r="H257" s="3"/>
-      <c r="O257" s="7"/>
-      <c r="Q257" s="7"/>
+      <c r="N257" s="7"/>
+      <c r="P257" s="7"/>
+      <c r="Q257" s="9"/>
       <c r="R257" s="9"/>
-      <c r="S257" s="9"/>
-      <c r="Y257" s="11"/>
+      <c r="X257" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
